--- a/Document/My Ais/T9/T9_Test_MyAIS_APP_IPE_EN.xlsx
+++ b/Document/My Ais/T9/T9_Test_MyAIS_APP_IPE_EN.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN T9\My Ais\T9\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="1995" windowWidth="20115" windowHeight="6075" tabRatio="879" firstSheet="1" activeTab="4"/>
   </bookViews>
@@ -24,7 +19,7 @@
     <sheet name="Point&amp;Privilege" sheetId="30" r:id="rId10"/>
     <sheet name="Quick Menu" sheetId="29" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -28424,17 +28419,6 @@
     <t>1.Login My AIS 
 2.Click menu "Top Up/ Payment"
 3.Click menu "Top Up"
-4.Input Invalid Mobile no(eg.66xxxxxxxx)
-5.Select top up channels (Cash Card)
-6.Enter 16 digits PIN code
-7.Click "Next"
-8.Verify popup msg: Please specify a 10digit mobile number.
-9.Capture Screen</t>
-  </si>
-  <si>
-    <t>1.Login My AIS 
-2.Click menu "Top Up/ Payment"
-3.Click menu "Top Up"
 4.Input Mobile no not AIS number
 5.Select top up channels (Cash Card)
 6.Enter 16 digits PIN code
@@ -28500,11 +28484,22 @@
 8.Verify popup msg: Your top up cannot be processed at this time due to the remaining balance of destination number has exceeded the allowing limit for 10,000 Baht.
 9.Capture Screen</t>
   </si>
+  <si>
+    <t>1.Login My AIS 
+2.Click menu "Top Up/ Payment"
+3.Click menu "Top Up"
+4.Input Invalid Mobile no(eg.66xxxxxxxx)
+5.Select top up channels (Cash Card)
+6.Enter 16 digits PIN code
+7.Click "Next"
+8.Verify popup msg: You have entered invalid mobile number.
+9.Capture Screen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="187" formatCode="0.0"/>
     <numFmt numFmtId="188" formatCode="m/d/yy"/>
@@ -29190,7 +29185,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -29404,6 +29399,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -30074,7 +30075,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="674">
+  <cellXfs count="681">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -31612,74 +31613,6 @@
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -31761,6 +31694,22 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -31773,24 +31722,118 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -31804,29 +31847,11 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -31855,82 +31880,61 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="42" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="22" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="20" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="43" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="44" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="21" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="45" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="22" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -31941,7 +31945,7 @@
     <xf numFmtId="0" fontId="20" fillId="28" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -31962,8 +31966,26 @@
     <xf numFmtId="0" fontId="70" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -32025,7 +32047,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32069,7 +32091,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32113,7 +32135,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32157,7 +32179,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32201,7 +32223,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32245,7 +32267,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32289,7 +32311,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32333,7 +32355,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32377,7 +32399,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32421,7 +32443,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32465,7 +32487,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32509,7 +32531,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32553,7 +32575,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32597,7 +32619,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32641,7 +32663,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32837,7 +32859,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36453,7 +36475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -36488,7 +36510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -37190,25 +37212,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="569" t="s">
+      <c r="C5" s="597" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="570"/>
-      <c r="E5" s="571"/>
+      <c r="D5" s="598"/>
+      <c r="E5" s="599"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="561"/>
-      <c r="I5" s="561"/>
-      <c r="J5" s="561"/>
+      <c r="H5" s="595"/>
+      <c r="I5" s="595"/>
+      <c r="J5" s="595"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="592"/>
-      <c r="E6" s="593"/>
+      <c r="C6" s="571"/>
+      <c r="D6" s="572"/>
+      <c r="E6" s="573"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -37218,23 +37240,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="572"/>
-      <c r="D7" s="573"/>
-      <c r="E7" s="574"/>
+      <c r="C7" s="600"/>
+      <c r="D7" s="601"/>
+      <c r="E7" s="602"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="561"/>
-      <c r="I7" s="561"/>
-      <c r="J7" s="561"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="595"/>
+      <c r="J7" s="595"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="575" t="s">
+      <c r="C8" s="603" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="576"/>
-      <c r="E8" s="577"/>
+      <c r="D8" s="604"/>
+      <c r="E8" s="605"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -37257,58 +37279,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="562" t="s">
+      <c r="B11" s="589" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="563"/>
-      <c r="D11" s="564"/>
-      <c r="E11" s="564"/>
-      <c r="F11" s="565"/>
+      <c r="C11" s="590"/>
+      <c r="D11" s="596"/>
+      <c r="E11" s="596"/>
+      <c r="F11" s="591"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="566"/>
-      <c r="D12" s="567"/>
-      <c r="E12" s="567"/>
-      <c r="F12" s="568"/>
+      <c r="C12" s="582"/>
+      <c r="D12" s="584"/>
+      <c r="E12" s="584"/>
+      <c r="F12" s="585"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="566"/>
-      <c r="D13" s="567"/>
-      <c r="E13" s="567"/>
-      <c r="F13" s="568"/>
+      <c r="C13" s="582"/>
+      <c r="D13" s="584"/>
+      <c r="E13" s="584"/>
+      <c r="F13" s="585"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="566"/>
-      <c r="D14" s="567"/>
-      <c r="E14" s="567"/>
-      <c r="F14" s="568"/>
+      <c r="C14" s="582"/>
+      <c r="D14" s="584"/>
+      <c r="E14" s="584"/>
+      <c r="F14" s="585"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="566"/>
-      <c r="D15" s="567"/>
-      <c r="E15" s="567"/>
-      <c r="F15" s="568"/>
+      <c r="C15" s="582"/>
+      <c r="D15" s="584"/>
+      <c r="E15" s="584"/>
+      <c r="F15" s="585"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="602"/>
-      <c r="D16" s="603"/>
-      <c r="E16" s="603"/>
-      <c r="F16" s="604"/>
+      <c r="C16" s="586"/>
+      <c r="D16" s="587"/>
+      <c r="E16" s="587"/>
+      <c r="F16" s="588"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -37318,13 +37340,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="562" t="s">
+      <c r="B18" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="563"/>
-      <c r="D18" s="563"/>
-      <c r="E18" s="563"/>
-      <c r="F18" s="565"/>
+      <c r="C18" s="590"/>
+      <c r="D18" s="590"/>
+      <c r="E18" s="590"/>
+      <c r="F18" s="591"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -37336,10 +37358,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="597" t="s">
+      <c r="E19" s="577" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="605"/>
+      <c r="F19" s="592"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -37351,73 +37373,73 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="566" t="s">
+      <c r="E20" s="582" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="578"/>
+      <c r="F20" s="583"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="566"/>
-      <c r="F21" s="578"/>
+      <c r="E21" s="582"/>
+      <c r="F21" s="583"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="566"/>
-      <c r="F22" s="578"/>
+      <c r="E22" s="582"/>
+      <c r="F22" s="583"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="566"/>
-      <c r="F23" s="578"/>
+      <c r="E23" s="582"/>
+      <c r="F23" s="583"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="566"/>
-      <c r="F24" s="578"/>
+      <c r="E24" s="582"/>
+      <c r="F24" s="583"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="566"/>
-      <c r="F25" s="578"/>
+      <c r="E25" s="582"/>
+      <c r="F25" s="583"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="566"/>
-      <c r="F26" s="578"/>
+      <c r="E26" s="582"/>
+      <c r="F26" s="583"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="566"/>
-      <c r="F27" s="578"/>
+      <c r="E27" s="582"/>
+      <c r="F27" s="583"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="566"/>
-      <c r="F28" s="578"/>
+      <c r="E28" s="582"/>
+      <c r="F28" s="583"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="579"/>
-      <c r="F29" s="580"/>
+      <c r="E29" s="593"/>
+      <c r="F29" s="594"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -37427,67 +37449,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="594" t="s">
+      <c r="B31" s="574" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="595"/>
-      <c r="D31" s="595"/>
-      <c r="E31" s="596"/>
+      <c r="C31" s="575"/>
+      <c r="D31" s="575"/>
+      <c r="E31" s="576"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="597" t="s">
+      <c r="C32" s="577" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="598"/>
-      <c r="E32" s="598"/>
+      <c r="D32" s="578"/>
+      <c r="E32" s="578"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="583"/>
-      <c r="D33" s="584"/>
-      <c r="E33" s="584"/>
+      <c r="C33" s="563"/>
+      <c r="D33" s="564"/>
+      <c r="E33" s="564"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="599"/>
-      <c r="D34" s="600"/>
-      <c r="E34" s="601"/>
+      <c r="C34" s="579"/>
+      <c r="D34" s="580"/>
+      <c r="E34" s="581"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="581"/>
-      <c r="D35" s="582"/>
-      <c r="E35" s="582"/>
+      <c r="C35" s="561"/>
+      <c r="D35" s="562"/>
+      <c r="E35" s="562"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="583"/>
-      <c r="D36" s="584"/>
-      <c r="E36" s="584"/>
+      <c r="C36" s="563"/>
+      <c r="D36" s="564"/>
+      <c r="E36" s="564"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="585"/>
-      <c r="D37" s="586"/>
-      <c r="E37" s="587"/>
+      <c r="C37" s="565"/>
+      <c r="D37" s="566"/>
+      <c r="E37" s="567"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="588"/>
-      <c r="D38" s="589"/>
-      <c r="E38" s="590"/>
+      <c r="C38" s="568"/>
+      <c r="D38" s="569"/>
+      <c r="E38" s="570"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37513,6 +37535,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -37529,22 +37567,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40725,56 +40747,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="667" t="s">
+      <c r="A1" s="668" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="669" t="s">
+      <c r="B1" s="670" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="669" t="s">
+      <c r="C1" s="670" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="670" t="s">
+      <c r="D1" s="671" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="670" t="s">
+      <c r="E1" s="671" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="669" t="s">
+      <c r="F1" s="670" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="669" t="s">
+      <c r="G1" s="670" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="669" t="s">
+      <c r="H1" s="670" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="669" t="s">
+      <c r="I1" s="670" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="669" t="s">
+      <c r="J1" s="670" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="672" t="s">
+      <c r="K1" s="673" t="s">
         <v>477</v>
       </c>
-      <c r="L1" s="665" t="s">
+      <c r="L1" s="666" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="668"/>
-      <c r="B2" s="668"/>
-      <c r="C2" s="668"/>
-      <c r="D2" s="671"/>
-      <c r="E2" s="671"/>
-      <c r="F2" s="668"/>
-      <c r="G2" s="668"/>
-      <c r="H2" s="668"/>
-      <c r="I2" s="668"/>
-      <c r="J2" s="668"/>
-      <c r="K2" s="668"/>
-      <c r="L2" s="666"/>
+      <c r="A2" s="669"/>
+      <c r="B2" s="669"/>
+      <c r="C2" s="669"/>
+      <c r="D2" s="672"/>
+      <c r="E2" s="672"/>
+      <c r="F2" s="669"/>
+      <c r="G2" s="669"/>
+      <c r="H2" s="669"/>
+      <c r="I2" s="669"/>
+      <c r="J2" s="669"/>
+      <c r="K2" s="669"/>
+      <c r="L2" s="667"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="365" t="s">
@@ -41297,20 +41319,20 @@
       <c r="L25" s="388"/>
     </row>
     <row r="26" spans="1:12" s="405" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="661" t="s">
+      <c r="A26" s="662" t="s">
         <v>1065</v>
       </c>
-      <c r="B26" s="662"/>
-      <c r="C26" s="662"/>
-      <c r="D26" s="662"/>
-      <c r="E26" s="662"/>
-      <c r="F26" s="662"/>
-      <c r="G26" s="662"/>
-      <c r="H26" s="662"/>
-      <c r="I26" s="662"/>
-      <c r="J26" s="662"/>
-      <c r="K26" s="662"/>
-      <c r="L26" s="663"/>
+      <c r="B26" s="663"/>
+      <c r="C26" s="663"/>
+      <c r="D26" s="663"/>
+      <c r="E26" s="663"/>
+      <c r="F26" s="663"/>
+      <c r="G26" s="663"/>
+      <c r="H26" s="663"/>
+      <c r="I26" s="663"/>
+      <c r="J26" s="663"/>
+      <c r="K26" s="663"/>
+      <c r="L26" s="664"/>
     </row>
     <row r="27" spans="1:12" s="405" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="146" t="s">
@@ -41953,20 +41975,20 @@
       <c r="L54" s="410"/>
     </row>
     <row r="55" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="664" t="s">
+      <c r="A55" s="661" t="s">
         <v>1135</v>
       </c>
-      <c r="B55" s="664"/>
-      <c r="C55" s="664"/>
-      <c r="D55" s="664"/>
-      <c r="E55" s="664"/>
-      <c r="F55" s="664"/>
-      <c r="G55" s="664"/>
-      <c r="H55" s="664"/>
-      <c r="I55" s="664"/>
-      <c r="J55" s="664"/>
-      <c r="K55" s="664"/>
-      <c r="L55" s="664"/>
+      <c r="B55" s="661"/>
+      <c r="C55" s="661"/>
+      <c r="D55" s="661"/>
+      <c r="E55" s="661"/>
+      <c r="F55" s="661"/>
+      <c r="G55" s="661"/>
+      <c r="H55" s="661"/>
+      <c r="I55" s="661"/>
+      <c r="J55" s="661"/>
+      <c r="K55" s="661"/>
+      <c r="L55" s="661"/>
     </row>
     <row r="56" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="146" t="s">
@@ -42017,20 +42039,20 @@
       <c r="L57" s="410"/>
     </row>
     <row r="58" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="664" t="s">
+      <c r="A58" s="661" t="s">
         <v>1140</v>
       </c>
-      <c r="B58" s="664"/>
-      <c r="C58" s="664"/>
-      <c r="D58" s="664"/>
-      <c r="E58" s="664"/>
-      <c r="F58" s="664"/>
-      <c r="G58" s="664"/>
-      <c r="H58" s="664"/>
-      <c r="I58" s="664"/>
-      <c r="J58" s="664"/>
-      <c r="K58" s="664"/>
-      <c r="L58" s="664"/>
+      <c r="B58" s="661"/>
+      <c r="C58" s="661"/>
+      <c r="D58" s="661"/>
+      <c r="E58" s="661"/>
+      <c r="F58" s="661"/>
+      <c r="G58" s="661"/>
+      <c r="H58" s="661"/>
+      <c r="I58" s="661"/>
+      <c r="J58" s="661"/>
+      <c r="K58" s="661"/>
+      <c r="L58" s="661"/>
     </row>
     <row r="59" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="146" t="s">
@@ -42081,20 +42103,20 @@
       <c r="L60" s="410"/>
     </row>
     <row r="61" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="664" t="s">
+      <c r="A61" s="661" t="s">
         <v>1146</v>
       </c>
-      <c r="B61" s="664"/>
-      <c r="C61" s="664"/>
-      <c r="D61" s="664"/>
-      <c r="E61" s="664"/>
-      <c r="F61" s="664"/>
-      <c r="G61" s="664"/>
-      <c r="H61" s="664"/>
-      <c r="I61" s="664"/>
-      <c r="J61" s="664"/>
-      <c r="K61" s="664"/>
-      <c r="L61" s="664"/>
+      <c r="B61" s="661"/>
+      <c r="C61" s="661"/>
+      <c r="D61" s="661"/>
+      <c r="E61" s="661"/>
+      <c r="F61" s="661"/>
+      <c r="G61" s="661"/>
+      <c r="H61" s="661"/>
+      <c r="I61" s="661"/>
+      <c r="J61" s="661"/>
+      <c r="K61" s="661"/>
+      <c r="L61" s="661"/>
     </row>
     <row r="62" spans="1:12" s="487" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="483" t="s">
@@ -42145,20 +42167,20 @@
       <c r="L63" s="410"/>
     </row>
     <row r="64" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="661" t="s">
+      <c r="A64" s="662" t="s">
         <v>1152</v>
       </c>
-      <c r="B64" s="662"/>
-      <c r="C64" s="662"/>
-      <c r="D64" s="662"/>
-      <c r="E64" s="662"/>
-      <c r="F64" s="662"/>
-      <c r="G64" s="662"/>
-      <c r="H64" s="662"/>
-      <c r="I64" s="662"/>
-      <c r="J64" s="662"/>
-      <c r="K64" s="662"/>
-      <c r="L64" s="663"/>
+      <c r="B64" s="663"/>
+      <c r="C64" s="663"/>
+      <c r="D64" s="663"/>
+      <c r="E64" s="663"/>
+      <c r="F64" s="663"/>
+      <c r="G64" s="663"/>
+      <c r="H64" s="663"/>
+      <c r="I64" s="663"/>
+      <c r="J64" s="663"/>
+      <c r="K64" s="663"/>
+      <c r="L64" s="664"/>
     </row>
     <row r="65" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="146" t="s">
@@ -42257,20 +42279,20 @@
       <c r="L68" s="410"/>
     </row>
     <row r="69" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="664" t="s">
+      <c r="A69" s="661" t="s">
         <v>1164</v>
       </c>
-      <c r="B69" s="664"/>
-      <c r="C69" s="664"/>
-      <c r="D69" s="664"/>
-      <c r="E69" s="664"/>
-      <c r="F69" s="664"/>
-      <c r="G69" s="664"/>
-      <c r="H69" s="664"/>
-      <c r="I69" s="664"/>
-      <c r="J69" s="664"/>
-      <c r="K69" s="664"/>
-      <c r="L69" s="664"/>
+      <c r="B69" s="661"/>
+      <c r="C69" s="661"/>
+      <c r="D69" s="661"/>
+      <c r="E69" s="661"/>
+      <c r="F69" s="661"/>
+      <c r="G69" s="661"/>
+      <c r="H69" s="661"/>
+      <c r="I69" s="661"/>
+      <c r="J69" s="661"/>
+      <c r="K69" s="661"/>
+      <c r="L69" s="661"/>
     </row>
     <row r="70" spans="1:12" s="487" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="483" t="s">
@@ -42395,20 +42417,20 @@
       <c r="L74" s="410"/>
     </row>
     <row r="75" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="664" t="s">
+      <c r="A75" s="661" t="s">
         <v>1176</v>
       </c>
-      <c r="B75" s="664"/>
-      <c r="C75" s="664"/>
-      <c r="D75" s="664"/>
-      <c r="E75" s="664"/>
-      <c r="F75" s="664"/>
-      <c r="G75" s="664"/>
-      <c r="H75" s="664"/>
-      <c r="I75" s="664"/>
-      <c r="J75" s="664"/>
-      <c r="K75" s="664"/>
-      <c r="L75" s="664"/>
+      <c r="B75" s="661"/>
+      <c r="C75" s="661"/>
+      <c r="D75" s="661"/>
+      <c r="E75" s="661"/>
+      <c r="F75" s="661"/>
+      <c r="G75" s="661"/>
+      <c r="H75" s="661"/>
+      <c r="I75" s="661"/>
+      <c r="J75" s="661"/>
+      <c r="K75" s="661"/>
+      <c r="L75" s="661"/>
     </row>
     <row r="76" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="146" t="s">
@@ -42483,20 +42505,20 @@
       <c r="L78" s="410"/>
     </row>
     <row r="79" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="664" t="s">
+      <c r="A79" s="661" t="s">
         <v>1185</v>
       </c>
-      <c r="B79" s="664"/>
-      <c r="C79" s="664"/>
-      <c r="D79" s="664"/>
-      <c r="E79" s="664"/>
-      <c r="F79" s="664"/>
-      <c r="G79" s="664"/>
-      <c r="H79" s="664"/>
-      <c r="I79" s="664"/>
-      <c r="J79" s="664"/>
-      <c r="K79" s="664"/>
-      <c r="L79" s="664"/>
+      <c r="B79" s="661"/>
+      <c r="C79" s="661"/>
+      <c r="D79" s="661"/>
+      <c r="E79" s="661"/>
+      <c r="F79" s="661"/>
+      <c r="G79" s="661"/>
+      <c r="H79" s="661"/>
+      <c r="I79" s="661"/>
+      <c r="J79" s="661"/>
+      <c r="K79" s="661"/>
+      <c r="L79" s="661"/>
     </row>
     <row r="80" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="146" t="s">
@@ -42595,20 +42617,20 @@
       <c r="L83" s="410"/>
     </row>
     <row r="84" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="664" t="s">
+      <c r="A84" s="661" t="s">
         <v>1195</v>
       </c>
-      <c r="B84" s="664"/>
-      <c r="C84" s="664"/>
-      <c r="D84" s="664"/>
-      <c r="E84" s="664"/>
-      <c r="F84" s="664"/>
-      <c r="G84" s="664"/>
-      <c r="H84" s="664"/>
-      <c r="I84" s="664"/>
-      <c r="J84" s="664"/>
-      <c r="K84" s="664"/>
-      <c r="L84" s="664"/>
+      <c r="B84" s="661"/>
+      <c r="C84" s="661"/>
+      <c r="D84" s="661"/>
+      <c r="E84" s="661"/>
+      <c r="F84" s="661"/>
+      <c r="G84" s="661"/>
+      <c r="H84" s="661"/>
+      <c r="I84" s="661"/>
+      <c r="J84" s="661"/>
+      <c r="K84" s="661"/>
+      <c r="L84" s="661"/>
     </row>
     <row r="85" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="146" t="s">
@@ -42659,20 +42681,20 @@
       <c r="L86" s="410"/>
     </row>
     <row r="87" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="664" t="s">
+      <c r="A87" s="661" t="s">
         <v>1201</v>
       </c>
-      <c r="B87" s="664"/>
-      <c r="C87" s="664"/>
-      <c r="D87" s="664"/>
-      <c r="E87" s="664"/>
-      <c r="F87" s="664"/>
-      <c r="G87" s="664"/>
-      <c r="H87" s="664"/>
-      <c r="I87" s="664"/>
-      <c r="J87" s="664"/>
-      <c r="K87" s="664"/>
-      <c r="L87" s="664"/>
+      <c r="B87" s="661"/>
+      <c r="C87" s="661"/>
+      <c r="D87" s="661"/>
+      <c r="E87" s="661"/>
+      <c r="F87" s="661"/>
+      <c r="G87" s="661"/>
+      <c r="H87" s="661"/>
+      <c r="I87" s="661"/>
+      <c r="J87" s="661"/>
+      <c r="K87" s="661"/>
+      <c r="L87" s="661"/>
     </row>
     <row r="88" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="146" t="s">
@@ -42771,20 +42793,20 @@
       <c r="L91" s="410"/>
     </row>
     <row r="92" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="664" t="s">
+      <c r="A92" s="661" t="s">
         <v>1209</v>
       </c>
-      <c r="B92" s="664"/>
-      <c r="C92" s="664"/>
-      <c r="D92" s="664"/>
-      <c r="E92" s="664"/>
-      <c r="F92" s="664"/>
-      <c r="G92" s="664"/>
-      <c r="H92" s="664"/>
-      <c r="I92" s="664"/>
-      <c r="J92" s="664"/>
-      <c r="K92" s="664"/>
-      <c r="L92" s="664"/>
+      <c r="B92" s="661"/>
+      <c r="C92" s="661"/>
+      <c r="D92" s="661"/>
+      <c r="E92" s="661"/>
+      <c r="F92" s="661"/>
+      <c r="G92" s="661"/>
+      <c r="H92" s="661"/>
+      <c r="I92" s="661"/>
+      <c r="J92" s="661"/>
+      <c r="K92" s="661"/>
+      <c r="L92" s="661"/>
     </row>
     <row r="93" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="146" t="s">
@@ -42859,20 +42881,20 @@
       <c r="L95" s="410"/>
     </row>
     <row r="96" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="664" t="s">
+      <c r="A96" s="661" t="s">
         <v>1218</v>
       </c>
-      <c r="B96" s="664"/>
-      <c r="C96" s="664"/>
-      <c r="D96" s="664"/>
-      <c r="E96" s="664"/>
-      <c r="F96" s="664"/>
-      <c r="G96" s="664"/>
-      <c r="H96" s="664"/>
-      <c r="I96" s="664"/>
-      <c r="J96" s="664"/>
-      <c r="K96" s="664"/>
-      <c r="L96" s="664"/>
+      <c r="B96" s="661"/>
+      <c r="C96" s="661"/>
+      <c r="D96" s="661"/>
+      <c r="E96" s="661"/>
+      <c r="F96" s="661"/>
+      <c r="G96" s="661"/>
+      <c r="H96" s="661"/>
+      <c r="I96" s="661"/>
+      <c r="J96" s="661"/>
+      <c r="K96" s="661"/>
+      <c r="L96" s="661"/>
     </row>
     <row r="97" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="146" t="s">
@@ -43057,20 +43079,20 @@
       <c r="L104" s="508"/>
     </row>
     <row r="105" spans="1:12" s="414" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="673" t="s">
+      <c r="A105" s="665" t="s">
         <v>1223</v>
       </c>
-      <c r="B105" s="673"/>
-      <c r="C105" s="673"/>
-      <c r="D105" s="673"/>
-      <c r="E105" s="673"/>
-      <c r="F105" s="673"/>
-      <c r="G105" s="673"/>
-      <c r="H105" s="673"/>
-      <c r="I105" s="673"/>
-      <c r="J105" s="673"/>
-      <c r="K105" s="673"/>
-      <c r="L105" s="673"/>
+      <c r="B105" s="665"/>
+      <c r="C105" s="665"/>
+      <c r="D105" s="665"/>
+      <c r="E105" s="665"/>
+      <c r="F105" s="665"/>
+      <c r="G105" s="665"/>
+      <c r="H105" s="665"/>
+      <c r="I105" s="665"/>
+      <c r="J105" s="665"/>
+      <c r="K105" s="665"/>
+      <c r="L105" s="665"/>
     </row>
     <row r="106" spans="1:12" s="414" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="415" t="s">
@@ -43281,16 +43303,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A105:L105"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A69:L69"/>
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A55:L55"/>
     <mergeCell ref="A58:L58"/>
@@ -43306,6 +43318,16 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A105:L105"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A69:L69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43343,10 +43365,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="606" t="s">
+      <c r="A1" s="642" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="606"/>
+      <c r="B1" s="642"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -43381,250 +43403,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="607" t="s">
+      <c r="A2" s="643" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="607" t="s">
+      <c r="B2" s="643" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="607" t="s">
+      <c r="C2" s="643" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="610" t="s">
+      <c r="D2" s="646" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="610"/>
-      <c r="F2" s="610"/>
-      <c r="G2" s="619" t="s">
+      <c r="E2" s="646"/>
+      <c r="F2" s="646"/>
+      <c r="G2" s="612" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="620"/>
-      <c r="I2" s="620"/>
-      <c r="J2" s="621"/>
-      <c r="K2" s="637" t="s">
+      <c r="H2" s="613"/>
+      <c r="I2" s="613"/>
+      <c r="J2" s="618"/>
+      <c r="K2" s="606" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="637"/>
-      <c r="M2" s="619" t="s">
+      <c r="L2" s="606"/>
+      <c r="M2" s="612" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="620"/>
-      <c r="O2" s="621"/>
-      <c r="P2" s="619" t="s">
+      <c r="N2" s="613"/>
+      <c r="O2" s="618"/>
+      <c r="P2" s="612" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="621"/>
-      <c r="R2" s="619" t="s">
+      <c r="Q2" s="618"/>
+      <c r="R2" s="612" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="620"/>
-      <c r="T2" s="619" t="s">
+      <c r="S2" s="613"/>
+      <c r="T2" s="612" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="620"/>
-      <c r="V2" s="620"/>
-      <c r="W2" s="620"/>
-      <c r="X2" s="621"/>
-      <c r="Y2" s="619" t="s">
+      <c r="U2" s="613"/>
+      <c r="V2" s="613"/>
+      <c r="W2" s="613"/>
+      <c r="X2" s="618"/>
+      <c r="Y2" s="612" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="620"/>
-      <c r="AA2" s="620"/>
-      <c r="AB2" s="621"/>
-      <c r="AC2" s="613" t="s">
+      <c r="Z2" s="613"/>
+      <c r="AA2" s="613"/>
+      <c r="AB2" s="618"/>
+      <c r="AC2" s="627" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="614"/>
-      <c r="AE2" s="614"/>
-      <c r="AF2" s="629"/>
-      <c r="AG2" s="613" t="s">
+      <c r="AD2" s="628"/>
+      <c r="AE2" s="628"/>
+      <c r="AF2" s="637"/>
+      <c r="AG2" s="627" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="614"/>
-      <c r="AI2" s="614"/>
+      <c r="AH2" s="628"/>
+      <c r="AI2" s="628"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="608"/>
-      <c r="B3" s="608"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="610"/>
-      <c r="E3" s="610"/>
-      <c r="F3" s="610"/>
-      <c r="G3" s="615"/>
-      <c r="H3" s="616"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="637" t="s">
+      <c r="A3" s="644"/>
+      <c r="B3" s="644"/>
+      <c r="C3" s="644"/>
+      <c r="D3" s="646"/>
+      <c r="E3" s="646"/>
+      <c r="F3" s="646"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="606" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="637"/>
-      <c r="M3" s="615"/>
-      <c r="N3" s="616"/>
-      <c r="O3" s="622"/>
-      <c r="P3" s="615"/>
-      <c r="Q3" s="622"/>
-      <c r="R3" s="615"/>
-      <c r="S3" s="616"/>
-      <c r="T3" s="615"/>
-      <c r="U3" s="616"/>
-      <c r="V3" s="616"/>
-      <c r="W3" s="616"/>
-      <c r="X3" s="622"/>
-      <c r="Y3" s="615"/>
-      <c r="Z3" s="616"/>
-      <c r="AA3" s="616"/>
-      <c r="AB3" s="622"/>
-      <c r="AC3" s="615"/>
-      <c r="AD3" s="616"/>
-      <c r="AE3" s="616"/>
-      <c r="AF3" s="622"/>
-      <c r="AG3" s="615"/>
-      <c r="AH3" s="616"/>
-      <c r="AI3" s="616"/>
+      <c r="L3" s="606"/>
+      <c r="M3" s="614"/>
+      <c r="N3" s="615"/>
+      <c r="O3" s="619"/>
+      <c r="P3" s="614"/>
+      <c r="Q3" s="619"/>
+      <c r="R3" s="614"/>
+      <c r="S3" s="615"/>
+      <c r="T3" s="614"/>
+      <c r="U3" s="615"/>
+      <c r="V3" s="615"/>
+      <c r="W3" s="615"/>
+      <c r="X3" s="619"/>
+      <c r="Y3" s="614"/>
+      <c r="Z3" s="615"/>
+      <c r="AA3" s="615"/>
+      <c r="AB3" s="619"/>
+      <c r="AC3" s="614"/>
+      <c r="AD3" s="615"/>
+      <c r="AE3" s="615"/>
+      <c r="AF3" s="619"/>
+      <c r="AG3" s="614"/>
+      <c r="AH3" s="615"/>
+      <c r="AI3" s="615"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="608"/>
-      <c r="B4" s="608"/>
-      <c r="C4" s="608"/>
-      <c r="D4" s="611" t="s">
+      <c r="A4" s="644"/>
+      <c r="B4" s="644"/>
+      <c r="C4" s="644"/>
+      <c r="D4" s="625" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="611" t="s">
+      <c r="E4" s="625" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="611" t="s">
+      <c r="F4" s="625" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="635" t="s">
+      <c r="G4" s="623" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="635" t="s">
+      <c r="H4" s="623" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="635" t="s">
+      <c r="I4" s="623" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="635" t="s">
+      <c r="J4" s="623" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="638" t="s">
+      <c r="K4" s="607" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="638" t="s">
+      <c r="L4" s="607" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="640" t="s">
+      <c r="M4" s="609" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="640" t="s">
+      <c r="N4" s="609" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="644" t="s">
+      <c r="O4" s="620" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="645" t="s">
+      <c r="P4" s="621" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="645" t="s">
+      <c r="Q4" s="621" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="642" t="s">
+      <c r="R4" s="616" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="642" t="s">
+      <c r="S4" s="616" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="617" t="s">
+      <c r="T4" s="629" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="633" t="s">
+      <c r="U4" s="640" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="634"/>
-      <c r="W4" s="632" t="s">
+      <c r="V4" s="641"/>
+      <c r="W4" s="611" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="632" t="s">
+      <c r="X4" s="611" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="623" t="s">
+      <c r="Y4" s="631" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="623" t="s">
+      <c r="Z4" s="631" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="627" t="s">
+      <c r="AA4" s="635" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="628"/>
-      <c r="AC4" s="625" t="s">
+      <c r="AB4" s="636"/>
+      <c r="AC4" s="633" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="625" t="s">
+      <c r="AD4" s="633" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="630" t="s">
+      <c r="AE4" s="638" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="631"/>
-      <c r="AG4" s="611" t="s">
+      <c r="AF4" s="639"/>
+      <c r="AG4" s="625" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="611" t="s">
+      <c r="AH4" s="625" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="611" t="s">
+      <c r="AI4" s="625" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="609"/>
-      <c r="B5" s="609"/>
-      <c r="C5" s="609"/>
-      <c r="D5" s="612"/>
-      <c r="E5" s="612"/>
-      <c r="F5" s="612"/>
-      <c r="G5" s="636"/>
-      <c r="H5" s="636"/>
-      <c r="I5" s="636"/>
-      <c r="J5" s="636"/>
-      <c r="K5" s="639"/>
-      <c r="L5" s="639"/>
-      <c r="M5" s="641"/>
-      <c r="N5" s="641"/>
-      <c r="O5" s="641"/>
-      <c r="P5" s="646"/>
-      <c r="Q5" s="646"/>
-      <c r="R5" s="643"/>
-      <c r="S5" s="643"/>
-      <c r="T5" s="618"/>
+      <c r="A5" s="645"/>
+      <c r="B5" s="645"/>
+      <c r="C5" s="645"/>
+      <c r="D5" s="626"/>
+      <c r="E5" s="626"/>
+      <c r="F5" s="626"/>
+      <c r="G5" s="624"/>
+      <c r="H5" s="624"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="608"/>
+      <c r="L5" s="608"/>
+      <c r="M5" s="610"/>
+      <c r="N5" s="610"/>
+      <c r="O5" s="610"/>
+      <c r="P5" s="622"/>
+      <c r="Q5" s="622"/>
+      <c r="R5" s="617"/>
+      <c r="S5" s="617"/>
+      <c r="T5" s="630"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="632"/>
-      <c r="X5" s="632"/>
-      <c r="Y5" s="624"/>
-      <c r="Z5" s="624"/>
+      <c r="W5" s="611"/>
+      <c r="X5" s="611"/>
+      <c r="Y5" s="632"/>
+      <c r="Z5" s="632"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="626"/>
-      <c r="AD5" s="626"/>
+      <c r="AC5" s="634"/>
+      <c r="AD5" s="634"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="612"/>
-      <c r="AH5" s="612"/>
-      <c r="AI5" s="612"/>
+      <c r="AG5" s="626"/>
+      <c r="AH5" s="626"/>
+      <c r="AI5" s="626"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -43887,26 +43909,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -43923,14 +43933,26 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45961,8 +45983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -48139,26 +48161,26 @@
       <c r="J103" s="532"/>
       <c r="K103" s="532"/>
     </row>
-    <row r="104" spans="1:11" s="533" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="527" t="s">
+    <row r="104" spans="1:11" s="680" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="674" t="s">
         <v>1791</v>
       </c>
-      <c r="B104" s="528" t="s">
+      <c r="B104" s="675" t="s">
         <v>1593</v>
       </c>
-      <c r="C104" s="529" t="s">
+      <c r="C104" s="676" t="s">
         <v>1714</v>
       </c>
-      <c r="D104" s="530" t="s">
-        <v>2170</v>
-      </c>
-      <c r="E104" s="531"/>
-      <c r="F104" s="531"/>
-      <c r="G104" s="531"/>
-      <c r="H104" s="531"/>
-      <c r="I104" s="531"/>
-      <c r="J104" s="532"/>
-      <c r="K104" s="532"/>
+      <c r="D104" s="677" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E104" s="678"/>
+      <c r="F104" s="678"/>
+      <c r="G104" s="678"/>
+      <c r="H104" s="678"/>
+      <c r="I104" s="678"/>
+      <c r="J104" s="679"/>
+      <c r="K104" s="679"/>
     </row>
     <row r="105" spans="1:11" s="533" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="527" t="s">
@@ -48339,7 +48361,7 @@
         <v>1714</v>
       </c>
       <c r="D113" s="530" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E113" s="531"/>
       <c r="F113" s="531"/>
@@ -48528,7 +48550,7 @@
         <v>1714</v>
       </c>
       <c r="D122" s="530" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E122" s="531"/>
       <c r="F122" s="531"/>
@@ -48801,7 +48823,7 @@
         <v>1714</v>
       </c>
       <c r="D135" s="530" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="E135" s="531"/>
       <c r="F135" s="531"/>
@@ -48822,7 +48844,7 @@
         <v>1714</v>
       </c>
       <c r="D136" s="530" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E136" s="531"/>
       <c r="F136" s="531"/>
@@ -48843,7 +48865,7 @@
         <v>1714</v>
       </c>
       <c r="D137" s="530" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="E137" s="531"/>
       <c r="F137" s="531"/>
@@ -48969,7 +48991,7 @@
         <v>1714</v>
       </c>
       <c r="D143" s="530" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E143" s="531"/>
       <c r="F143" s="531"/>
@@ -53395,98 +53417,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="660" t="s">
+      <c r="A1" s="657" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="648" t="s">
+      <c r="B1" s="655" t="s">
         <v>475</v>
       </c>
-      <c r="C1" s="648" t="s">
+      <c r="C1" s="655" t="s">
         <v>476</v>
       </c>
-      <c r="D1" s="648" t="s">
+      <c r="D1" s="655" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="648" t="s">
+      <c r="E1" s="655" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="648" t="s">
+      <c r="F1" s="655" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="648" t="s">
+      <c r="G1" s="655" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="648" t="s">
+      <c r="H1" s="655" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="648" t="s">
+      <c r="I1" s="655" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="648" t="s">
+      <c r="J1" s="655" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="648" t="s">
+      <c r="K1" s="655" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="648" t="s">
+      <c r="L1" s="655" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="657" t="s">
+      <c r="M1" s="660" t="s">
         <v>477</v>
       </c>
-      <c r="N1" s="658" t="s">
+      <c r="N1" s="648" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="649"/>
-      <c r="B2" s="649"/>
-      <c r="C2" s="649"/>
-      <c r="D2" s="649"/>
-      <c r="E2" s="649"/>
-      <c r="F2" s="649"/>
-      <c r="G2" s="649"/>
-      <c r="H2" s="649"/>
-      <c r="I2" s="649"/>
-      <c r="J2" s="649"/>
-      <c r="K2" s="649"/>
-      <c r="L2" s="649"/>
-      <c r="M2" s="649"/>
-      <c r="N2" s="652"/>
+      <c r="A2" s="656"/>
+      <c r="B2" s="656"/>
+      <c r="C2" s="656"/>
+      <c r="D2" s="656"/>
+      <c r="E2" s="656"/>
+      <c r="F2" s="656"/>
+      <c r="G2" s="656"/>
+      <c r="H2" s="656"/>
+      <c r="I2" s="656"/>
+      <c r="J2" s="656"/>
+      <c r="K2" s="656"/>
+      <c r="L2" s="656"/>
+      <c r="M2" s="656"/>
+      <c r="N2" s="649"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="654" t="s">
+      <c r="A3" s="650" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="655"/>
-      <c r="C3" s="655"/>
-      <c r="D3" s="655"/>
-      <c r="E3" s="655"/>
-      <c r="F3" s="655"/>
-      <c r="G3" s="655"/>
-      <c r="H3" s="655"/>
-      <c r="I3" s="655"/>
-      <c r="J3" s="655"/>
-      <c r="K3" s="655"/>
-      <c r="L3" s="656"/>
+      <c r="B3" s="651"/>
+      <c r="C3" s="651"/>
+      <c r="D3" s="651"/>
+      <c r="E3" s="651"/>
+      <c r="F3" s="651"/>
+      <c r="G3" s="651"/>
+      <c r="H3" s="651"/>
+      <c r="I3" s="651"/>
+      <c r="J3" s="651"/>
+      <c r="K3" s="651"/>
+      <c r="L3" s="652"/>
       <c r="M3" s="214"/>
       <c r="N3" s="215"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="659" t="s">
+      <c r="A4" s="653" t="s">
         <v>480</v>
       </c>
-      <c r="B4" s="655"/>
-      <c r="C4" s="655"/>
-      <c r="D4" s="655"/>
-      <c r="E4" s="655"/>
-      <c r="F4" s="655"/>
-      <c r="G4" s="655"/>
-      <c r="H4" s="655"/>
-      <c r="I4" s="655"/>
-      <c r="J4" s="655"/>
-      <c r="K4" s="655"/>
-      <c r="L4" s="656"/>
+      <c r="B4" s="651"/>
+      <c r="C4" s="651"/>
+      <c r="D4" s="651"/>
+      <c r="E4" s="651"/>
+      <c r="F4" s="651"/>
+      <c r="G4" s="651"/>
+      <c r="H4" s="651"/>
+      <c r="I4" s="651"/>
+      <c r="J4" s="651"/>
+      <c r="K4" s="651"/>
+      <c r="L4" s="652"/>
       <c r="M4" s="216"/>
       <c r="N4" s="217"/>
     </row>
@@ -53658,20 +53680,20 @@
       <c r="N10" s="247"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="654" t="s">
+      <c r="A11" s="650" t="s">
         <v>502</v>
       </c>
-      <c r="B11" s="651"/>
-      <c r="C11" s="651"/>
-      <c r="D11" s="655"/>
-      <c r="E11" s="651"/>
-      <c r="F11" s="655"/>
-      <c r="G11" s="655"/>
-      <c r="H11" s="655"/>
-      <c r="I11" s="655"/>
-      <c r="J11" s="655"/>
-      <c r="K11" s="655"/>
-      <c r="L11" s="656"/>
+      <c r="B11" s="654"/>
+      <c r="C11" s="654"/>
+      <c r="D11" s="651"/>
+      <c r="E11" s="654"/>
+      <c r="F11" s="651"/>
+      <c r="G11" s="651"/>
+      <c r="H11" s="651"/>
+      <c r="I11" s="651"/>
+      <c r="J11" s="651"/>
+      <c r="K11" s="651"/>
+      <c r="L11" s="652"/>
       <c r="M11" s="214"/>
       <c r="N11" s="214"/>
     </row>
@@ -53732,20 +53754,20 @@
       <c r="N13" s="259"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="654" t="s">
+      <c r="A14" s="650" t="s">
         <v>510</v>
       </c>
-      <c r="B14" s="655"/>
-      <c r="C14" s="655"/>
-      <c r="D14" s="655"/>
-      <c r="E14" s="655"/>
-      <c r="F14" s="655"/>
-      <c r="G14" s="655"/>
-      <c r="H14" s="655"/>
-      <c r="I14" s="655"/>
-      <c r="J14" s="655"/>
-      <c r="K14" s="655"/>
-      <c r="L14" s="656"/>
+      <c r="B14" s="651"/>
+      <c r="C14" s="651"/>
+      <c r="D14" s="651"/>
+      <c r="E14" s="651"/>
+      <c r="F14" s="651"/>
+      <c r="G14" s="651"/>
+      <c r="H14" s="651"/>
+      <c r="I14" s="651"/>
+      <c r="J14" s="651"/>
+      <c r="K14" s="651"/>
+      <c r="L14" s="652"/>
       <c r="M14" s="258"/>
       <c r="N14" s="259"/>
     </row>
@@ -53806,20 +53828,20 @@
       <c r="N16" s="267"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="650" t="s">
+      <c r="A17" s="658" t="s">
         <v>516</v>
       </c>
-      <c r="B17" s="651"/>
-      <c r="C17" s="651"/>
-      <c r="D17" s="651"/>
-      <c r="E17" s="651"/>
-      <c r="F17" s="651"/>
-      <c r="G17" s="651"/>
-      <c r="H17" s="651"/>
-      <c r="I17" s="651"/>
-      <c r="J17" s="651"/>
-      <c r="K17" s="651"/>
-      <c r="L17" s="652"/>
+      <c r="B17" s="654"/>
+      <c r="C17" s="654"/>
+      <c r="D17" s="654"/>
+      <c r="E17" s="654"/>
+      <c r="F17" s="654"/>
+      <c r="G17" s="654"/>
+      <c r="H17" s="654"/>
+      <c r="I17" s="654"/>
+      <c r="J17" s="654"/>
+      <c r="K17" s="654"/>
+      <c r="L17" s="649"/>
       <c r="M17" s="268"/>
       <c r="N17" s="269"/>
     </row>
@@ -54136,20 +54158,20 @@
       <c r="N30" s="306"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="653" t="s">
+      <c r="A31" s="659" t="s">
         <v>553</v>
       </c>
-      <c r="B31" s="651"/>
-      <c r="C31" s="651"/>
-      <c r="D31" s="651"/>
-      <c r="E31" s="651"/>
-      <c r="F31" s="651"/>
-      <c r="G31" s="651"/>
-      <c r="H31" s="651"/>
-      <c r="I31" s="651"/>
-      <c r="J31" s="651"/>
-      <c r="K31" s="651"/>
-      <c r="L31" s="652"/>
+      <c r="B31" s="654"/>
+      <c r="C31" s="654"/>
+      <c r="D31" s="654"/>
+      <c r="E31" s="654"/>
+      <c r="F31" s="654"/>
+      <c r="G31" s="654"/>
+      <c r="H31" s="654"/>
+      <c r="I31" s="654"/>
+      <c r="J31" s="654"/>
+      <c r="K31" s="654"/>
+      <c r="L31" s="649"/>
       <c r="M31" s="307"/>
       <c r="N31" s="307"/>
     </row>
@@ -68613,6 +68635,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
@@ -68629,10 +68655,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Document/My Ais/T9/T9_Test_MyAIS_APP_IPE_EN.xlsx
+++ b/Document/My Ais/T9/T9_Test_MyAIS_APP_IPE_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1995" windowWidth="20115" windowHeight="6075" tabRatio="879" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="1995" windowWidth="20115" windowHeight="6075" tabRatio="879" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="2241">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -28946,15 +28946,6 @@
 **ไม่แสดงเบอร์ที่ลบไปแล้วใน my List</t>
   </si>
   <si>
-    <t>F2_Hamburger_5_2_Y_11_2</t>
-  </si>
-  <si>
-    <t>F2_Hamburger_5_2_Y_12_2</t>
-  </si>
-  <si>
-    <t>F2_Hamburger_5_2_Y_13_2</t>
-  </si>
-  <si>
     <t>F4_Hamburger_5_2_Y_1_2</t>
   </si>
   <si>
@@ -29032,6 +29023,24 @@
   <si>
     <t>Source Number : IPE 
 Status : Active</t>
+  </si>
+  <si>
+    <t>F2_Hamburger_5_2_Y_1_2</t>
+  </si>
+  <si>
+    <t>F2_Hamburger_5_2_Y_2_2</t>
+  </si>
+  <si>
+    <t>F2_Hamburger_5_2_Y_3_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_5_2_Y_1_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_5_2_Y_5_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_5_2_Y_3_2</t>
   </si>
 </sst>
 </file>
@@ -32194,73 +32203,57 @@
     <xf numFmtId="0" fontId="28" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -32343,6 +32336,22 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -32355,24 +32364,118 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -32386,29 +32489,11 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -32437,51 +32522,34 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="20" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -32498,7 +32566,6 @@
     <xf numFmtId="0" fontId="46" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="38" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -32506,10 +32573,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -32520,7 +32587,7 @@
     <xf numFmtId="0" fontId="20" fillId="28" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="19" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -32540,64 +32607,6 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="48" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="70" fillId="19" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -32663,7 +32672,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32707,7 +32716,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32751,7 +32760,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32795,7 +32804,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32839,7 +32848,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32883,7 +32892,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32927,7 +32936,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32971,7 +32980,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33015,7 +33024,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33059,7 +33068,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33103,7 +33112,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33147,7 +33156,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33191,7 +33200,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33235,7 +33244,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33279,7 +33288,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33475,7 +33484,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37828,17 +37837,17 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="575" t="s">
+      <c r="C5" s="623" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="576"/>
-      <c r="E5" s="577"/>
+      <c r="D5" s="624"/>
+      <c r="E5" s="625"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="567"/>
-      <c r="I5" s="567"/>
-      <c r="J5" s="567"/>
+      <c r="H5" s="621"/>
+      <c r="I5" s="621"/>
+      <c r="J5" s="621"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
@@ -37856,23 +37865,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="578"/>
-      <c r="D7" s="579"/>
-      <c r="E7" s="580"/>
+      <c r="C7" s="626"/>
+      <c r="D7" s="627"/>
+      <c r="E7" s="628"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="567"/>
-      <c r="I7" s="567"/>
-      <c r="J7" s="567"/>
+      <c r="H7" s="621"/>
+      <c r="I7" s="621"/>
+      <c r="J7" s="621"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="581" t="s">
+      <c r="C8" s="629" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="582"/>
-      <c r="E8" s="583"/>
+      <c r="D8" s="630"/>
+      <c r="E8" s="631"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -37895,58 +37904,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="568" t="s">
+      <c r="B11" s="615" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="569"/>
-      <c r="D11" s="570"/>
-      <c r="E11" s="570"/>
-      <c r="F11" s="571"/>
+      <c r="C11" s="616"/>
+      <c r="D11" s="622"/>
+      <c r="E11" s="622"/>
+      <c r="F11" s="617"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="572"/>
-      <c r="D12" s="573"/>
-      <c r="E12" s="573"/>
-      <c r="F12" s="574"/>
+      <c r="C12" s="608"/>
+      <c r="D12" s="610"/>
+      <c r="E12" s="610"/>
+      <c r="F12" s="611"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="572"/>
-      <c r="D13" s="573"/>
-      <c r="E13" s="573"/>
-      <c r="F13" s="574"/>
+      <c r="C13" s="608"/>
+      <c r="D13" s="610"/>
+      <c r="E13" s="610"/>
+      <c r="F13" s="611"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="572"/>
-      <c r="D14" s="573"/>
-      <c r="E14" s="573"/>
-      <c r="F14" s="574"/>
+      <c r="C14" s="608"/>
+      <c r="D14" s="610"/>
+      <c r="E14" s="610"/>
+      <c r="F14" s="611"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="572"/>
-      <c r="D15" s="573"/>
-      <c r="E15" s="573"/>
-      <c r="F15" s="574"/>
+      <c r="C15" s="608"/>
+      <c r="D15" s="610"/>
+      <c r="E15" s="610"/>
+      <c r="F15" s="611"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="608"/>
-      <c r="D16" s="609"/>
-      <c r="E16" s="609"/>
-      <c r="F16" s="610"/>
+      <c r="C16" s="612"/>
+      <c r="D16" s="613"/>
+      <c r="E16" s="613"/>
+      <c r="F16" s="614"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -37956,13 +37965,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="568" t="s">
+      <c r="B18" s="615" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="569"/>
-      <c r="D18" s="569"/>
-      <c r="E18" s="569"/>
-      <c r="F18" s="571"/>
+      <c r="C18" s="616"/>
+      <c r="D18" s="616"/>
+      <c r="E18" s="616"/>
+      <c r="F18" s="617"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -37977,7 +37986,7 @@
       <c r="E19" s="603" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="611"/>
+      <c r="F19" s="618"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -37989,73 +37998,73 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="572" t="s">
+      <c r="E20" s="608" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="584"/>
+      <c r="F20" s="609"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="572"/>
-      <c r="F21" s="584"/>
+      <c r="E21" s="608"/>
+      <c r="F21" s="609"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="572"/>
-      <c r="F22" s="584"/>
+      <c r="E22" s="608"/>
+      <c r="F22" s="609"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="572"/>
-      <c r="F23" s="584"/>
+      <c r="E23" s="608"/>
+      <c r="F23" s="609"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="572"/>
-      <c r="F24" s="584"/>
+      <c r="E24" s="608"/>
+      <c r="F24" s="609"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="572"/>
-      <c r="F25" s="584"/>
+      <c r="E25" s="608"/>
+      <c r="F25" s="609"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="572"/>
-      <c r="F26" s="584"/>
+      <c r="E26" s="608"/>
+      <c r="F26" s="609"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="572"/>
-      <c r="F27" s="584"/>
+      <c r="E27" s="608"/>
+      <c r="F27" s="609"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="572"/>
-      <c r="F28" s="584"/>
+      <c r="E28" s="608"/>
+      <c r="F28" s="609"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="585"/>
-      <c r="F29" s="586"/>
+      <c r="E29" s="619"/>
+      <c r="F29" s="620"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -38151,6 +38160,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -38167,22 +38192,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38217,98 +38226,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="665" t="s">
+      <c r="A1" s="686" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="664" t="s">
+      <c r="B1" s="674" t="s">
         <v>475</v>
       </c>
-      <c r="C1" s="664" t="s">
+      <c r="C1" s="674" t="s">
         <v>476</v>
       </c>
-      <c r="D1" s="664" t="s">
+      <c r="D1" s="674" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="664" t="s">
+      <c r="E1" s="674" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="664" t="s">
+      <c r="F1" s="674" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="664" t="s">
+      <c r="G1" s="674" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="664" t="s">
+      <c r="H1" s="674" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="664" t="s">
+      <c r="I1" s="674" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="664" t="s">
+      <c r="J1" s="674" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="664" t="s">
+      <c r="K1" s="674" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="664" t="s">
+      <c r="L1" s="674" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="660" t="s">
+      <c r="M1" s="683" t="s">
         <v>477</v>
       </c>
-      <c r="N1" s="662" t="s">
+      <c r="N1" s="684" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="661"/>
-      <c r="B2" s="661"/>
-      <c r="C2" s="661"/>
-      <c r="D2" s="661"/>
-      <c r="E2" s="661"/>
-      <c r="F2" s="661"/>
-      <c r="G2" s="661"/>
-      <c r="H2" s="661"/>
-      <c r="I2" s="661"/>
-      <c r="J2" s="661"/>
-      <c r="K2" s="661"/>
-      <c r="L2" s="661"/>
-      <c r="M2" s="661"/>
-      <c r="N2" s="655"/>
+      <c r="A2" s="675"/>
+      <c r="B2" s="675"/>
+      <c r="C2" s="675"/>
+      <c r="D2" s="675"/>
+      <c r="E2" s="675"/>
+      <c r="F2" s="675"/>
+      <c r="G2" s="675"/>
+      <c r="H2" s="675"/>
+      <c r="I2" s="675"/>
+      <c r="J2" s="675"/>
+      <c r="K2" s="675"/>
+      <c r="L2" s="675"/>
+      <c r="M2" s="675"/>
+      <c r="N2" s="678"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="657" t="s">
+      <c r="A3" s="680" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="658"/>
-      <c r="C3" s="658"/>
-      <c r="D3" s="658"/>
-      <c r="E3" s="658"/>
-      <c r="F3" s="658"/>
-      <c r="G3" s="658"/>
-      <c r="H3" s="658"/>
-      <c r="I3" s="658"/>
-      <c r="J3" s="658"/>
-      <c r="K3" s="658"/>
-      <c r="L3" s="659"/>
+      <c r="B3" s="681"/>
+      <c r="C3" s="681"/>
+      <c r="D3" s="681"/>
+      <c r="E3" s="681"/>
+      <c r="F3" s="681"/>
+      <c r="G3" s="681"/>
+      <c r="H3" s="681"/>
+      <c r="I3" s="681"/>
+      <c r="J3" s="681"/>
+      <c r="K3" s="681"/>
+      <c r="L3" s="682"/>
       <c r="M3" s="214"/>
       <c r="N3" s="215"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="663" t="s">
+      <c r="A4" s="685" t="s">
         <v>480</v>
       </c>
-      <c r="B4" s="658"/>
-      <c r="C4" s="658"/>
-      <c r="D4" s="658"/>
-      <c r="E4" s="658"/>
-      <c r="F4" s="658"/>
-      <c r="G4" s="658"/>
-      <c r="H4" s="658"/>
-      <c r="I4" s="658"/>
-      <c r="J4" s="658"/>
-      <c r="K4" s="658"/>
-      <c r="L4" s="659"/>
+      <c r="B4" s="681"/>
+      <c r="C4" s="681"/>
+      <c r="D4" s="681"/>
+      <c r="E4" s="681"/>
+      <c r="F4" s="681"/>
+      <c r="G4" s="681"/>
+      <c r="H4" s="681"/>
+      <c r="I4" s="681"/>
+      <c r="J4" s="681"/>
+      <c r="K4" s="681"/>
+      <c r="L4" s="682"/>
       <c r="M4" s="216"/>
       <c r="N4" s="217"/>
     </row>
@@ -38480,20 +38489,20 @@
       <c r="N10" s="247"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="657" t="s">
+      <c r="A11" s="680" t="s">
         <v>502</v>
       </c>
-      <c r="B11" s="654"/>
-      <c r="C11" s="654"/>
-      <c r="D11" s="658"/>
-      <c r="E11" s="654"/>
-      <c r="F11" s="658"/>
-      <c r="G11" s="658"/>
-      <c r="H11" s="658"/>
-      <c r="I11" s="658"/>
-      <c r="J11" s="658"/>
-      <c r="K11" s="658"/>
-      <c r="L11" s="659"/>
+      <c r="B11" s="677"/>
+      <c r="C11" s="677"/>
+      <c r="D11" s="681"/>
+      <c r="E11" s="677"/>
+      <c r="F11" s="681"/>
+      <c r="G11" s="681"/>
+      <c r="H11" s="681"/>
+      <c r="I11" s="681"/>
+      <c r="J11" s="681"/>
+      <c r="K11" s="681"/>
+      <c r="L11" s="682"/>
       <c r="M11" s="214"/>
       <c r="N11" s="214"/>
     </row>
@@ -38554,20 +38563,20 @@
       <c r="N13" s="259"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="657" t="s">
+      <c r="A14" s="680" t="s">
         <v>510</v>
       </c>
-      <c r="B14" s="658"/>
-      <c r="C14" s="658"/>
-      <c r="D14" s="658"/>
-      <c r="E14" s="658"/>
-      <c r="F14" s="658"/>
-      <c r="G14" s="658"/>
-      <c r="H14" s="658"/>
-      <c r="I14" s="658"/>
-      <c r="J14" s="658"/>
-      <c r="K14" s="658"/>
-      <c r="L14" s="659"/>
+      <c r="B14" s="681"/>
+      <c r="C14" s="681"/>
+      <c r="D14" s="681"/>
+      <c r="E14" s="681"/>
+      <c r="F14" s="681"/>
+      <c r="G14" s="681"/>
+      <c r="H14" s="681"/>
+      <c r="I14" s="681"/>
+      <c r="J14" s="681"/>
+      <c r="K14" s="681"/>
+      <c r="L14" s="682"/>
       <c r="M14" s="258"/>
       <c r="N14" s="259"/>
     </row>
@@ -38628,20 +38637,20 @@
       <c r="N16" s="267"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="653" t="s">
+      <c r="A17" s="676" t="s">
         <v>516</v>
       </c>
-      <c r="B17" s="654"/>
-      <c r="C17" s="654"/>
-      <c r="D17" s="654"/>
-      <c r="E17" s="654"/>
-      <c r="F17" s="654"/>
-      <c r="G17" s="654"/>
-      <c r="H17" s="654"/>
-      <c r="I17" s="654"/>
-      <c r="J17" s="654"/>
-      <c r="K17" s="654"/>
-      <c r="L17" s="655"/>
+      <c r="B17" s="677"/>
+      <c r="C17" s="677"/>
+      <c r="D17" s="677"/>
+      <c r="E17" s="677"/>
+      <c r="F17" s="677"/>
+      <c r="G17" s="677"/>
+      <c r="H17" s="677"/>
+      <c r="I17" s="677"/>
+      <c r="J17" s="677"/>
+      <c r="K17" s="677"/>
+      <c r="L17" s="678"/>
       <c r="M17" s="268"/>
       <c r="N17" s="269"/>
     </row>
@@ -38958,20 +38967,20 @@
       <c r="N30" s="306"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="656" t="s">
+      <c r="A31" s="679" t="s">
         <v>553</v>
       </c>
-      <c r="B31" s="654"/>
-      <c r="C31" s="654"/>
-      <c r="D31" s="654"/>
-      <c r="E31" s="654"/>
-      <c r="F31" s="654"/>
-      <c r="G31" s="654"/>
-      <c r="H31" s="654"/>
-      <c r="I31" s="654"/>
-      <c r="J31" s="654"/>
-      <c r="K31" s="654"/>
-      <c r="L31" s="655"/>
+      <c r="B31" s="677"/>
+      <c r="C31" s="677"/>
+      <c r="D31" s="677"/>
+      <c r="E31" s="677"/>
+      <c r="F31" s="677"/>
+      <c r="G31" s="677"/>
+      <c r="H31" s="677"/>
+      <c r="I31" s="677"/>
+      <c r="J31" s="677"/>
+      <c r="K31" s="677"/>
+      <c r="L31" s="678"/>
       <c r="M31" s="307"/>
       <c r="N31" s="307"/>
     </row>
@@ -53435,11 +53444,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="M1:M2"/>
@@ -53455,6 +53459,11 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -56635,56 +56644,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="672" t="s">
+      <c r="A1" s="694" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="674" t="s">
+      <c r="B1" s="696" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="674" t="s">
+      <c r="C1" s="696" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="675" t="s">
+      <c r="D1" s="697" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="675" t="s">
+      <c r="E1" s="697" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="674" t="s">
+      <c r="F1" s="696" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="674" t="s">
+      <c r="G1" s="696" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="674" t="s">
+      <c r="H1" s="696" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="674" t="s">
+      <c r="I1" s="696" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="674" t="s">
+      <c r="J1" s="696" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="677" t="s">
+      <c r="K1" s="699" t="s">
         <v>477</v>
       </c>
-      <c r="L1" s="670" t="s">
+      <c r="L1" s="692" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="673"/>
-      <c r="B2" s="673"/>
-      <c r="C2" s="673"/>
-      <c r="D2" s="676"/>
-      <c r="E2" s="676"/>
-      <c r="F2" s="673"/>
-      <c r="G2" s="673"/>
-      <c r="H2" s="673"/>
-      <c r="I2" s="673"/>
-      <c r="J2" s="673"/>
-      <c r="K2" s="673"/>
-      <c r="L2" s="671"/>
+      <c r="A2" s="695"/>
+      <c r="B2" s="695"/>
+      <c r="C2" s="695"/>
+      <c r="D2" s="698"/>
+      <c r="E2" s="698"/>
+      <c r="F2" s="695"/>
+      <c r="G2" s="695"/>
+      <c r="H2" s="695"/>
+      <c r="I2" s="695"/>
+      <c r="J2" s="695"/>
+      <c r="K2" s="695"/>
+      <c r="L2" s="693"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="364" t="s">
@@ -57207,20 +57216,20 @@
       <c r="L25" s="387"/>
     </row>
     <row r="26" spans="1:12" s="404" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="666" t="s">
+      <c r="A26" s="688" t="s">
         <v>1061</v>
       </c>
-      <c r="B26" s="667"/>
-      <c r="C26" s="667"/>
-      <c r="D26" s="667"/>
-      <c r="E26" s="667"/>
-      <c r="F26" s="667"/>
-      <c r="G26" s="667"/>
-      <c r="H26" s="667"/>
-      <c r="I26" s="667"/>
-      <c r="J26" s="667"/>
-      <c r="K26" s="667"/>
-      <c r="L26" s="668"/>
+      <c r="B26" s="689"/>
+      <c r="C26" s="689"/>
+      <c r="D26" s="689"/>
+      <c r="E26" s="689"/>
+      <c r="F26" s="689"/>
+      <c r="G26" s="689"/>
+      <c r="H26" s="689"/>
+      <c r="I26" s="689"/>
+      <c r="J26" s="689"/>
+      <c r="K26" s="689"/>
+      <c r="L26" s="690"/>
     </row>
     <row r="27" spans="1:12" s="404" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="146" t="s">
@@ -57863,20 +57872,20 @@
       <c r="L54" s="409"/>
     </row>
     <row r="55" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="669" t="s">
+      <c r="A55" s="687" t="s">
         <v>1131</v>
       </c>
-      <c r="B55" s="669"/>
-      <c r="C55" s="669"/>
-      <c r="D55" s="669"/>
-      <c r="E55" s="669"/>
-      <c r="F55" s="669"/>
-      <c r="G55" s="669"/>
-      <c r="H55" s="669"/>
-      <c r="I55" s="669"/>
-      <c r="J55" s="669"/>
-      <c r="K55" s="669"/>
-      <c r="L55" s="669"/>
+      <c r="B55" s="687"/>
+      <c r="C55" s="687"/>
+      <c r="D55" s="687"/>
+      <c r="E55" s="687"/>
+      <c r="F55" s="687"/>
+      <c r="G55" s="687"/>
+      <c r="H55" s="687"/>
+      <c r="I55" s="687"/>
+      <c r="J55" s="687"/>
+      <c r="K55" s="687"/>
+      <c r="L55" s="687"/>
     </row>
     <row r="56" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="146" t="s">
@@ -57927,20 +57936,20 @@
       <c r="L57" s="409"/>
     </row>
     <row r="58" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="669" t="s">
+      <c r="A58" s="687" t="s">
         <v>1136</v>
       </c>
-      <c r="B58" s="669"/>
-      <c r="C58" s="669"/>
-      <c r="D58" s="669"/>
-      <c r="E58" s="669"/>
-      <c r="F58" s="669"/>
-      <c r="G58" s="669"/>
-      <c r="H58" s="669"/>
-      <c r="I58" s="669"/>
-      <c r="J58" s="669"/>
-      <c r="K58" s="669"/>
-      <c r="L58" s="669"/>
+      <c r="B58" s="687"/>
+      <c r="C58" s="687"/>
+      <c r="D58" s="687"/>
+      <c r="E58" s="687"/>
+      <c r="F58" s="687"/>
+      <c r="G58" s="687"/>
+      <c r="H58" s="687"/>
+      <c r="I58" s="687"/>
+      <c r="J58" s="687"/>
+      <c r="K58" s="687"/>
+      <c r="L58" s="687"/>
     </row>
     <row r="59" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="146" t="s">
@@ -57991,20 +58000,20 @@
       <c r="L60" s="409"/>
     </row>
     <row r="61" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="669" t="s">
+      <c r="A61" s="687" t="s">
         <v>1142</v>
       </c>
-      <c r="B61" s="669"/>
-      <c r="C61" s="669"/>
-      <c r="D61" s="669"/>
-      <c r="E61" s="669"/>
-      <c r="F61" s="669"/>
-      <c r="G61" s="669"/>
-      <c r="H61" s="669"/>
-      <c r="I61" s="669"/>
-      <c r="J61" s="669"/>
-      <c r="K61" s="669"/>
-      <c r="L61" s="669"/>
+      <c r="B61" s="687"/>
+      <c r="C61" s="687"/>
+      <c r="D61" s="687"/>
+      <c r="E61" s="687"/>
+      <c r="F61" s="687"/>
+      <c r="G61" s="687"/>
+      <c r="H61" s="687"/>
+      <c r="I61" s="687"/>
+      <c r="J61" s="687"/>
+      <c r="K61" s="687"/>
+      <c r="L61" s="687"/>
     </row>
     <row r="62" spans="1:12" s="486" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="482" t="s">
@@ -58055,20 +58064,20 @@
       <c r="L63" s="409"/>
     </row>
     <row r="64" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="666" t="s">
+      <c r="A64" s="688" t="s">
         <v>1148</v>
       </c>
-      <c r="B64" s="667"/>
-      <c r="C64" s="667"/>
-      <c r="D64" s="667"/>
-      <c r="E64" s="667"/>
-      <c r="F64" s="667"/>
-      <c r="G64" s="667"/>
-      <c r="H64" s="667"/>
-      <c r="I64" s="667"/>
-      <c r="J64" s="667"/>
-      <c r="K64" s="667"/>
-      <c r="L64" s="668"/>
+      <c r="B64" s="689"/>
+      <c r="C64" s="689"/>
+      <c r="D64" s="689"/>
+      <c r="E64" s="689"/>
+      <c r="F64" s="689"/>
+      <c r="G64" s="689"/>
+      <c r="H64" s="689"/>
+      <c r="I64" s="689"/>
+      <c r="J64" s="689"/>
+      <c r="K64" s="689"/>
+      <c r="L64" s="690"/>
     </row>
     <row r="65" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="146" t="s">
@@ -58167,20 +58176,20 @@
       <c r="L68" s="409"/>
     </row>
     <row r="69" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="669" t="s">
+      <c r="A69" s="687" t="s">
         <v>1160</v>
       </c>
-      <c r="B69" s="669"/>
-      <c r="C69" s="669"/>
-      <c r="D69" s="669"/>
-      <c r="E69" s="669"/>
-      <c r="F69" s="669"/>
-      <c r="G69" s="669"/>
-      <c r="H69" s="669"/>
-      <c r="I69" s="669"/>
-      <c r="J69" s="669"/>
-      <c r="K69" s="669"/>
-      <c r="L69" s="669"/>
+      <c r="B69" s="687"/>
+      <c r="C69" s="687"/>
+      <c r="D69" s="687"/>
+      <c r="E69" s="687"/>
+      <c r="F69" s="687"/>
+      <c r="G69" s="687"/>
+      <c r="H69" s="687"/>
+      <c r="I69" s="687"/>
+      <c r="J69" s="687"/>
+      <c r="K69" s="687"/>
+      <c r="L69" s="687"/>
     </row>
     <row r="70" spans="1:12" s="486" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="482" t="s">
@@ -58305,20 +58314,20 @@
       <c r="L74" s="409"/>
     </row>
     <row r="75" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="669" t="s">
+      <c r="A75" s="687" t="s">
         <v>1172</v>
       </c>
-      <c r="B75" s="669"/>
-      <c r="C75" s="669"/>
-      <c r="D75" s="669"/>
-      <c r="E75" s="669"/>
-      <c r="F75" s="669"/>
-      <c r="G75" s="669"/>
-      <c r="H75" s="669"/>
-      <c r="I75" s="669"/>
-      <c r="J75" s="669"/>
-      <c r="K75" s="669"/>
-      <c r="L75" s="669"/>
+      <c r="B75" s="687"/>
+      <c r="C75" s="687"/>
+      <c r="D75" s="687"/>
+      <c r="E75" s="687"/>
+      <c r="F75" s="687"/>
+      <c r="G75" s="687"/>
+      <c r="H75" s="687"/>
+      <c r="I75" s="687"/>
+      <c r="J75" s="687"/>
+      <c r="K75" s="687"/>
+      <c r="L75" s="687"/>
     </row>
     <row r="76" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="146" t="s">
@@ -58393,20 +58402,20 @@
       <c r="L78" s="409"/>
     </row>
     <row r="79" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="669" t="s">
+      <c r="A79" s="687" t="s">
         <v>1181</v>
       </c>
-      <c r="B79" s="669"/>
-      <c r="C79" s="669"/>
-      <c r="D79" s="669"/>
-      <c r="E79" s="669"/>
-      <c r="F79" s="669"/>
-      <c r="G79" s="669"/>
-      <c r="H79" s="669"/>
-      <c r="I79" s="669"/>
-      <c r="J79" s="669"/>
-      <c r="K79" s="669"/>
-      <c r="L79" s="669"/>
+      <c r="B79" s="687"/>
+      <c r="C79" s="687"/>
+      <c r="D79" s="687"/>
+      <c r="E79" s="687"/>
+      <c r="F79" s="687"/>
+      <c r="G79" s="687"/>
+      <c r="H79" s="687"/>
+      <c r="I79" s="687"/>
+      <c r="J79" s="687"/>
+      <c r="K79" s="687"/>
+      <c r="L79" s="687"/>
     </row>
     <row r="80" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="146" t="s">
@@ -58505,20 +58514,20 @@
       <c r="L83" s="409"/>
     </row>
     <row r="84" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="669" t="s">
+      <c r="A84" s="687" t="s">
         <v>1191</v>
       </c>
-      <c r="B84" s="669"/>
-      <c r="C84" s="669"/>
-      <c r="D84" s="669"/>
-      <c r="E84" s="669"/>
-      <c r="F84" s="669"/>
-      <c r="G84" s="669"/>
-      <c r="H84" s="669"/>
-      <c r="I84" s="669"/>
-      <c r="J84" s="669"/>
-      <c r="K84" s="669"/>
-      <c r="L84" s="669"/>
+      <c r="B84" s="687"/>
+      <c r="C84" s="687"/>
+      <c r="D84" s="687"/>
+      <c r="E84" s="687"/>
+      <c r="F84" s="687"/>
+      <c r="G84" s="687"/>
+      <c r="H84" s="687"/>
+      <c r="I84" s="687"/>
+      <c r="J84" s="687"/>
+      <c r="K84" s="687"/>
+      <c r="L84" s="687"/>
     </row>
     <row r="85" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="146" t="s">
@@ -58569,20 +58578,20 @@
       <c r="L86" s="409"/>
     </row>
     <row r="87" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="669" t="s">
+      <c r="A87" s="687" t="s">
         <v>1197</v>
       </c>
-      <c r="B87" s="669"/>
-      <c r="C87" s="669"/>
-      <c r="D87" s="669"/>
-      <c r="E87" s="669"/>
-      <c r="F87" s="669"/>
-      <c r="G87" s="669"/>
-      <c r="H87" s="669"/>
-      <c r="I87" s="669"/>
-      <c r="J87" s="669"/>
-      <c r="K87" s="669"/>
-      <c r="L87" s="669"/>
+      <c r="B87" s="687"/>
+      <c r="C87" s="687"/>
+      <c r="D87" s="687"/>
+      <c r="E87" s="687"/>
+      <c r="F87" s="687"/>
+      <c r="G87" s="687"/>
+      <c r="H87" s="687"/>
+      <c r="I87" s="687"/>
+      <c r="J87" s="687"/>
+      <c r="K87" s="687"/>
+      <c r="L87" s="687"/>
     </row>
     <row r="88" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="146" t="s">
@@ -58681,20 +58690,20 @@
       <c r="L91" s="409"/>
     </row>
     <row r="92" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="669" t="s">
+      <c r="A92" s="687" t="s">
         <v>1205</v>
       </c>
-      <c r="B92" s="669"/>
-      <c r="C92" s="669"/>
-      <c r="D92" s="669"/>
-      <c r="E92" s="669"/>
-      <c r="F92" s="669"/>
-      <c r="G92" s="669"/>
-      <c r="H92" s="669"/>
-      <c r="I92" s="669"/>
-      <c r="J92" s="669"/>
-      <c r="K92" s="669"/>
-      <c r="L92" s="669"/>
+      <c r="B92" s="687"/>
+      <c r="C92" s="687"/>
+      <c r="D92" s="687"/>
+      <c r="E92" s="687"/>
+      <c r="F92" s="687"/>
+      <c r="G92" s="687"/>
+      <c r="H92" s="687"/>
+      <c r="I92" s="687"/>
+      <c r="J92" s="687"/>
+      <c r="K92" s="687"/>
+      <c r="L92" s="687"/>
     </row>
     <row r="93" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="146" t="s">
@@ -58769,20 +58778,20 @@
       <c r="L95" s="409"/>
     </row>
     <row r="96" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="669" t="s">
+      <c r="A96" s="687" t="s">
         <v>1214</v>
       </c>
-      <c r="B96" s="669"/>
-      <c r="C96" s="669"/>
-      <c r="D96" s="669"/>
-      <c r="E96" s="669"/>
-      <c r="F96" s="669"/>
-      <c r="G96" s="669"/>
-      <c r="H96" s="669"/>
-      <c r="I96" s="669"/>
-      <c r="J96" s="669"/>
-      <c r="K96" s="669"/>
-      <c r="L96" s="669"/>
+      <c r="B96" s="687"/>
+      <c r="C96" s="687"/>
+      <c r="D96" s="687"/>
+      <c r="E96" s="687"/>
+      <c r="F96" s="687"/>
+      <c r="G96" s="687"/>
+      <c r="H96" s="687"/>
+      <c r="I96" s="687"/>
+      <c r="J96" s="687"/>
+      <c r="K96" s="687"/>
+      <c r="L96" s="687"/>
     </row>
     <row r="97" spans="1:12" s="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="146" t="s">
@@ -58967,20 +58976,20 @@
       <c r="L104" s="507"/>
     </row>
     <row r="105" spans="1:12" s="413" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="678" t="s">
+      <c r="A105" s="691" t="s">
         <v>1219</v>
       </c>
-      <c r="B105" s="678"/>
-      <c r="C105" s="678"/>
-      <c r="D105" s="678"/>
-      <c r="E105" s="678"/>
-      <c r="F105" s="678"/>
-      <c r="G105" s="678"/>
-      <c r="H105" s="678"/>
-      <c r="I105" s="678"/>
-      <c r="J105" s="678"/>
-      <c r="K105" s="678"/>
-      <c r="L105" s="678"/>
+      <c r="B105" s="691"/>
+      <c r="C105" s="691"/>
+      <c r="D105" s="691"/>
+      <c r="E105" s="691"/>
+      <c r="F105" s="691"/>
+      <c r="G105" s="691"/>
+      <c r="H105" s="691"/>
+      <c r="I105" s="691"/>
+      <c r="J105" s="691"/>
+      <c r="K105" s="691"/>
+      <c r="L105" s="691"/>
     </row>
     <row r="106" spans="1:12" s="413" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="414" t="s">
@@ -59191,16 +59200,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A105:L105"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A69:L69"/>
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A55:L55"/>
     <mergeCell ref="A58:L58"/>
@@ -59216,6 +59215,16 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A105:L105"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A69:L69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -59253,10 +59262,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="612" t="s">
+      <c r="A1" s="668" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="612"/>
+      <c r="B1" s="668"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -59291,250 +59300,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="613" t="s">
+      <c r="A2" s="669" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="613" t="s">
+      <c r="B2" s="669" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="613" t="s">
+      <c r="C2" s="669" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="616" t="s">
+      <c r="D2" s="672" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="616"/>
-      <c r="F2" s="616"/>
-      <c r="G2" s="625" t="s">
+      <c r="E2" s="672"/>
+      <c r="F2" s="672"/>
+      <c r="G2" s="638" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="626"/>
-      <c r="I2" s="626"/>
-      <c r="J2" s="627"/>
-      <c r="K2" s="643" t="s">
+      <c r="H2" s="639"/>
+      <c r="I2" s="639"/>
+      <c r="J2" s="644"/>
+      <c r="K2" s="632" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="643"/>
-      <c r="M2" s="625" t="s">
+      <c r="L2" s="632"/>
+      <c r="M2" s="638" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="626"/>
-      <c r="O2" s="627"/>
-      <c r="P2" s="625" t="s">
+      <c r="N2" s="639"/>
+      <c r="O2" s="644"/>
+      <c r="P2" s="638" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="627"/>
-      <c r="R2" s="625" t="s">
+      <c r="Q2" s="644"/>
+      <c r="R2" s="638" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="626"/>
-      <c r="T2" s="625" t="s">
+      <c r="S2" s="639"/>
+      <c r="T2" s="638" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="626"/>
-      <c r="V2" s="626"/>
-      <c r="W2" s="626"/>
-      <c r="X2" s="627"/>
-      <c r="Y2" s="625" t="s">
+      <c r="U2" s="639"/>
+      <c r="V2" s="639"/>
+      <c r="W2" s="639"/>
+      <c r="X2" s="644"/>
+      <c r="Y2" s="638" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="626"/>
-      <c r="AA2" s="626"/>
-      <c r="AB2" s="627"/>
-      <c r="AC2" s="619" t="s">
+      <c r="Z2" s="639"/>
+      <c r="AA2" s="639"/>
+      <c r="AB2" s="644"/>
+      <c r="AC2" s="653" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="620"/>
-      <c r="AE2" s="620"/>
-      <c r="AF2" s="635"/>
-      <c r="AG2" s="619" t="s">
+      <c r="AD2" s="654"/>
+      <c r="AE2" s="654"/>
+      <c r="AF2" s="663"/>
+      <c r="AG2" s="653" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="620"/>
-      <c r="AI2" s="620"/>
+      <c r="AH2" s="654"/>
+      <c r="AI2" s="654"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="614"/>
-      <c r="B3" s="614"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="616"/>
-      <c r="E3" s="616"/>
-      <c r="F3" s="616"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="622"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="643" t="s">
+      <c r="A3" s="670"/>
+      <c r="B3" s="670"/>
+      <c r="C3" s="670"/>
+      <c r="D3" s="672"/>
+      <c r="E3" s="672"/>
+      <c r="F3" s="672"/>
+      <c r="G3" s="640"/>
+      <c r="H3" s="641"/>
+      <c r="I3" s="641"/>
+      <c r="J3" s="645"/>
+      <c r="K3" s="632" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="643"/>
-      <c r="M3" s="621"/>
-      <c r="N3" s="622"/>
-      <c r="O3" s="628"/>
-      <c r="P3" s="621"/>
-      <c r="Q3" s="628"/>
-      <c r="R3" s="621"/>
-      <c r="S3" s="622"/>
-      <c r="T3" s="621"/>
-      <c r="U3" s="622"/>
-      <c r="V3" s="622"/>
-      <c r="W3" s="622"/>
-      <c r="X3" s="628"/>
-      <c r="Y3" s="621"/>
-      <c r="Z3" s="622"/>
-      <c r="AA3" s="622"/>
-      <c r="AB3" s="628"/>
-      <c r="AC3" s="621"/>
-      <c r="AD3" s="622"/>
-      <c r="AE3" s="622"/>
-      <c r="AF3" s="628"/>
-      <c r="AG3" s="621"/>
-      <c r="AH3" s="622"/>
-      <c r="AI3" s="622"/>
+      <c r="L3" s="632"/>
+      <c r="M3" s="640"/>
+      <c r="N3" s="641"/>
+      <c r="O3" s="645"/>
+      <c r="P3" s="640"/>
+      <c r="Q3" s="645"/>
+      <c r="R3" s="640"/>
+      <c r="S3" s="641"/>
+      <c r="T3" s="640"/>
+      <c r="U3" s="641"/>
+      <c r="V3" s="641"/>
+      <c r="W3" s="641"/>
+      <c r="X3" s="645"/>
+      <c r="Y3" s="640"/>
+      <c r="Z3" s="641"/>
+      <c r="AA3" s="641"/>
+      <c r="AB3" s="645"/>
+      <c r="AC3" s="640"/>
+      <c r="AD3" s="641"/>
+      <c r="AE3" s="641"/>
+      <c r="AF3" s="645"/>
+      <c r="AG3" s="640"/>
+      <c r="AH3" s="641"/>
+      <c r="AI3" s="641"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="614"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="617" t="s">
+      <c r="A4" s="670"/>
+      <c r="B4" s="670"/>
+      <c r="C4" s="670"/>
+      <c r="D4" s="651" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="617" t="s">
+      <c r="E4" s="651" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="617" t="s">
+      <c r="F4" s="651" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="641" t="s">
+      <c r="G4" s="649" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="641" t="s">
+      <c r="H4" s="649" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="641" t="s">
+      <c r="I4" s="649" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="641" t="s">
+      <c r="J4" s="649" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="644" t="s">
+      <c r="K4" s="633" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="644" t="s">
+      <c r="L4" s="633" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="646" t="s">
+      <c r="M4" s="635" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="646" t="s">
+      <c r="N4" s="635" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="650" t="s">
+      <c r="O4" s="646" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="651" t="s">
+      <c r="P4" s="647" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="651" t="s">
+      <c r="Q4" s="647" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="648" t="s">
+      <c r="R4" s="642" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="648" t="s">
+      <c r="S4" s="642" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="623" t="s">
+      <c r="T4" s="655" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="639" t="s">
+      <c r="U4" s="666" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="640"/>
-      <c r="W4" s="638" t="s">
+      <c r="V4" s="667"/>
+      <c r="W4" s="637" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="638" t="s">
+      <c r="X4" s="637" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="629" t="s">
+      <c r="Y4" s="657" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="629" t="s">
+      <c r="Z4" s="657" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="633" t="s">
+      <c r="AA4" s="661" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="634"/>
-      <c r="AC4" s="631" t="s">
+      <c r="AB4" s="662"/>
+      <c r="AC4" s="659" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="631" t="s">
+      <c r="AD4" s="659" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="636" t="s">
+      <c r="AE4" s="664" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="637"/>
-      <c r="AG4" s="617" t="s">
+      <c r="AF4" s="665"/>
+      <c r="AG4" s="651" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="617" t="s">
+      <c r="AH4" s="651" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="617" t="s">
+      <c r="AI4" s="651" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="615"/>
-      <c r="B5" s="615"/>
-      <c r="C5" s="615"/>
-      <c r="D5" s="618"/>
-      <c r="E5" s="618"/>
-      <c r="F5" s="618"/>
-      <c r="G5" s="642"/>
-      <c r="H5" s="642"/>
-      <c r="I5" s="642"/>
-      <c r="J5" s="642"/>
-      <c r="K5" s="645"/>
-      <c r="L5" s="645"/>
-      <c r="M5" s="647"/>
-      <c r="N5" s="647"/>
-      <c r="O5" s="647"/>
-      <c r="P5" s="652"/>
-      <c r="Q5" s="652"/>
-      <c r="R5" s="649"/>
-      <c r="S5" s="649"/>
-      <c r="T5" s="624"/>
+      <c r="A5" s="671"/>
+      <c r="B5" s="671"/>
+      <c r="C5" s="671"/>
+      <c r="D5" s="652"/>
+      <c r="E5" s="652"/>
+      <c r="F5" s="652"/>
+      <c r="G5" s="650"/>
+      <c r="H5" s="650"/>
+      <c r="I5" s="650"/>
+      <c r="J5" s="650"/>
+      <c r="K5" s="634"/>
+      <c r="L5" s="634"/>
+      <c r="M5" s="636"/>
+      <c r="N5" s="636"/>
+      <c r="O5" s="636"/>
+      <c r="P5" s="648"/>
+      <c r="Q5" s="648"/>
+      <c r="R5" s="643"/>
+      <c r="S5" s="643"/>
+      <c r="T5" s="656"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="638"/>
-      <c r="X5" s="638"/>
-      <c r="Y5" s="630"/>
-      <c r="Z5" s="630"/>
+      <c r="W5" s="637"/>
+      <c r="X5" s="637"/>
+      <c r="Y5" s="658"/>
+      <c r="Z5" s="658"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="632"/>
-      <c r="AD5" s="632"/>
+      <c r="AC5" s="660"/>
+      <c r="AD5" s="660"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="618"/>
-      <c r="AH5" s="618"/>
-      <c r="AI5" s="618"/>
+      <c r="AG5" s="652"/>
+      <c r="AH5" s="652"/>
+      <c r="AI5" s="652"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -59797,26 +59806,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -59833,14 +59830,26 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -65628,18 +65637,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.125" style="696" customWidth="1"/>
-    <col min="2" max="2" width="65.125" style="696" customWidth="1"/>
-    <col min="3" max="3" width="21" style="696" customWidth="1"/>
-    <col min="4" max="4" width="53.875" style="696" customWidth="1"/>
-    <col min="5" max="5" width="47.125" style="696" customWidth="1"/>
-    <col min="6" max="16384" width="9.125" style="696"/>
+    <col min="1" max="1" width="32.125" style="583" customWidth="1"/>
+    <col min="2" max="2" width="65.125" style="583" customWidth="1"/>
+    <col min="3" max="3" width="21" style="583" customWidth="1"/>
+    <col min="4" max="4" width="53.875" style="583" customWidth="1"/>
+    <col min="5" max="5" width="47.125" style="583" customWidth="1"/>
+    <col min="6" max="16384" width="9.125" style="583"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -65675,22 +65684,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="698" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="687" t="s">
+    <row r="2" spans="1:11" s="585" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="673" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="687"/>
-      <c r="C2" s="697"/>
-      <c r="D2" s="697"/>
-      <c r="E2" s="697"/>
-      <c r="F2" s="697"/>
-      <c r="G2" s="697"/>
-      <c r="H2" s="697"/>
-      <c r="I2" s="697"/>
-      <c r="J2" s="697"/>
-      <c r="K2" s="697"/>
-    </row>
-    <row r="3" spans="1:11" s="699" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="673"/>
+      <c r="C2" s="584"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="584"/>
+      <c r="F2" s="584"/>
+      <c r="G2" s="584"/>
+      <c r="H2" s="584"/>
+      <c r="I2" s="584"/>
+      <c r="J2" s="584"/>
+      <c r="K2" s="584"/>
+    </row>
+    <row r="3" spans="1:11" s="586" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
         <v>911</v>
       </c>
@@ -65711,7 +65720,7 @@
       <c r="J3" s="129"/>
       <c r="K3" s="129"/>
     </row>
-    <row r="4" spans="1:11" s="699" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="586" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="137" t="s">
         <v>914</v>
       </c>
@@ -65732,7 +65741,7 @@
       <c r="J4" s="129"/>
       <c r="K4" s="129"/>
     </row>
-    <row r="5" spans="1:11" s="699" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="137" t="s">
         <v>912</v>
       </c>
@@ -65753,7 +65762,7 @@
       <c r="J5" s="129"/>
       <c r="K5" s="129"/>
     </row>
-    <row r="6" spans="1:11" s="699" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="137" t="s">
         <v>913</v>
       </c>
@@ -65774,7 +65783,7 @@
       <c r="J6" s="129"/>
       <c r="K6" s="129"/>
     </row>
-    <row r="7" spans="1:11" s="699" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="137" t="s">
         <v>914</v>
       </c>
@@ -65795,7 +65804,7 @@
       <c r="J7" s="129"/>
       <c r="K7" s="129"/>
     </row>
-    <row r="8" spans="1:11" s="699" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="137" t="s">
         <v>915</v>
       </c>
@@ -65816,7 +65825,7 @@
       <c r="J8" s="129"/>
       <c r="K8" s="129"/>
     </row>
-    <row r="9" spans="1:11" s="699" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="137" t="s">
         <v>916</v>
       </c>
@@ -65837,7 +65846,7 @@
       <c r="J9" s="129"/>
       <c r="K9" s="129"/>
     </row>
-    <row r="10" spans="1:11" s="699" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="137" t="s">
         <v>917</v>
       </c>
@@ -65858,7 +65867,7 @@
       <c r="J10" s="129"/>
       <c r="K10" s="129"/>
     </row>
-    <row r="11" spans="1:11" s="699" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="137" t="s">
         <v>918</v>
       </c>
@@ -65879,7 +65888,7 @@
       <c r="J11" s="129"/>
       <c r="K11" s="129"/>
     </row>
-    <row r="12" spans="1:11" s="699" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="586" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="137" t="s">
         <v>919</v>
       </c>
@@ -65900,24 +65909,24 @@
       <c r="J12" s="129"/>
       <c r="K12" s="129"/>
     </row>
-    <row r="13" spans="1:11" s="690" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="687" t="s">
+    <row r="13" spans="1:11" s="577" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="673" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="687"/>
-      <c r="C13" s="688"/>
-      <c r="D13" s="688"/>
-      <c r="E13" s="688"/>
-      <c r="F13" s="688"/>
-      <c r="G13" s="688"/>
-      <c r="H13" s="688"/>
-      <c r="I13" s="688"/>
-      <c r="J13" s="689"/>
-      <c r="K13" s="689"/>
-    </row>
-    <row r="14" spans="1:11" s="699" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="673"/>
+      <c r="C13" s="575"/>
+      <c r="D13" s="575"/>
+      <c r="E13" s="575"/>
+      <c r="F13" s="575"/>
+      <c r="G13" s="575"/>
+      <c r="H13" s="575"/>
+      <c r="I13" s="575"/>
+      <c r="J13" s="576"/>
+      <c r="K13" s="576"/>
+    </row>
+    <row r="14" spans="1:11" s="586" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="137" t="s">
-        <v>2209</v>
+        <v>2235</v>
       </c>
       <c r="B14" s="120" t="s">
         <v>905</v>
@@ -65936,9 +65945,9 @@
       <c r="J14" s="129"/>
       <c r="K14" s="129"/>
     </row>
-    <row r="15" spans="1:11" s="699" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="586" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="137" t="s">
-        <v>2210</v>
+        <v>2236</v>
       </c>
       <c r="B15" s="120" t="s">
         <v>907</v>
@@ -65957,9 +65966,9 @@
       <c r="J15" s="129"/>
       <c r="K15" s="129"/>
     </row>
-    <row r="16" spans="1:11" s="699" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="586" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="137" t="s">
-        <v>2211</v>
+        <v>2237</v>
       </c>
       <c r="B16" s="120" t="s">
         <v>909</v>
@@ -65978,121 +65987,121 @@
       <c r="J16" s="129"/>
       <c r="K16" s="129"/>
     </row>
-    <row r="17" spans="1:11" s="690" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="687" t="s">
+    <row r="17" spans="1:11" s="577" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="673" t="s">
         <v>2199</v>
       </c>
-      <c r="B17" s="687"/>
-      <c r="C17" s="688"/>
-      <c r="D17" s="688"/>
-      <c r="E17" s="688"/>
-      <c r="F17" s="688"/>
-      <c r="G17" s="688"/>
-      <c r="H17" s="688"/>
-      <c r="I17" s="688"/>
-      <c r="J17" s="689"/>
-      <c r="K17" s="689"/>
-    </row>
-    <row r="18" spans="1:11" s="694" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="691" t="s">
-        <v>911</v>
-      </c>
-      <c r="B18" s="692" t="s">
+      <c r="B17" s="673"/>
+      <c r="C17" s="575"/>
+      <c r="D17" s="575"/>
+      <c r="E17" s="575"/>
+      <c r="F17" s="575"/>
+      <c r="G17" s="575"/>
+      <c r="H17" s="575"/>
+      <c r="I17" s="575"/>
+      <c r="J17" s="576"/>
+      <c r="K17" s="576"/>
+    </row>
+    <row r="18" spans="1:11" s="581" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="578" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B18" s="579" t="s">
         <v>2200</v>
       </c>
-      <c r="C18" s="692" t="s">
+      <c r="C18" s="579" t="s">
         <v>763</v>
       </c>
-      <c r="D18" s="692" t="s">
+      <c r="D18" s="579" t="s">
         <v>910</v>
       </c>
-      <c r="E18" s="693"/>
-      <c r="F18" s="693"/>
-      <c r="G18" s="693"/>
-      <c r="H18" s="693"/>
-      <c r="I18" s="693"/>
-      <c r="J18" s="693"/>
-      <c r="K18" s="693"/>
-    </row>
-    <row r="19" spans="1:11" s="695" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="691" t="s">
-        <v>914</v>
-      </c>
-      <c r="B19" s="692" t="s">
+      <c r="E18" s="580"/>
+      <c r="F18" s="580"/>
+      <c r="G18" s="580"/>
+      <c r="H18" s="580"/>
+      <c r="I18" s="580"/>
+      <c r="J18" s="580"/>
+      <c r="K18" s="580"/>
+    </row>
+    <row r="19" spans="1:11" s="582" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="578" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B19" s="579" t="s">
         <v>2201</v>
       </c>
-      <c r="C19" s="692" t="s">
+      <c r="C19" s="579" t="s">
         <v>763</v>
       </c>
-      <c r="D19" s="692" t="s">
+      <c r="D19" s="579" t="s">
         <v>2202</v>
       </c>
-      <c r="E19" s="693"/>
-      <c r="F19" s="693"/>
-      <c r="G19" s="693"/>
-      <c r="H19" s="693"/>
-      <c r="I19" s="693"/>
-      <c r="J19" s="693"/>
-      <c r="K19" s="693"/>
-    </row>
-    <row r="20" spans="1:11" s="694" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="691" t="s">
-        <v>912</v>
-      </c>
-      <c r="B20" s="692" t="s">
+      <c r="E19" s="580"/>
+      <c r="F19" s="580"/>
+      <c r="G19" s="580"/>
+      <c r="H19" s="580"/>
+      <c r="I19" s="580"/>
+      <c r="J19" s="580"/>
+      <c r="K19" s="580"/>
+    </row>
+    <row r="20" spans="1:11" s="581" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="578" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B20" s="579" t="s">
         <v>2203</v>
       </c>
-      <c r="C20" s="692" t="s">
+      <c r="C20" s="579" t="s">
         <v>763</v>
       </c>
-      <c r="D20" s="692" t="s">
+      <c r="D20" s="579" t="s">
         <v>908</v>
       </c>
-      <c r="E20" s="693"/>
-      <c r="F20" s="693"/>
-      <c r="G20" s="693"/>
-      <c r="H20" s="693"/>
-      <c r="I20" s="693"/>
-      <c r="J20" s="693"/>
-      <c r="K20" s="693"/>
+      <c r="E20" s="580"/>
+      <c r="F20" s="580"/>
+      <c r="G20" s="580"/>
+      <c r="H20" s="580"/>
+      <c r="I20" s="580"/>
+      <c r="J20" s="580"/>
+      <c r="K20" s="580"/>
     </row>
     <row r="21" spans="1:11" s="338" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="338" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="695" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="691" t="s">
-        <v>2212</v>
-      </c>
-      <c r="B22" s="692" t="s">
+    <row r="22" spans="1:11" s="582" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="578" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B22" s="579" t="s">
         <v>2205</v>
       </c>
-      <c r="C22" s="692" t="s">
+      <c r="C22" s="579" t="s">
         <v>763</v>
       </c>
-      <c r="D22" s="692" t="s">
+      <c r="D22" s="579" t="s">
         <v>2206</v>
       </c>
-      <c r="E22" s="693"/>
-      <c r="F22" s="693"/>
-      <c r="G22" s="693"/>
-      <c r="H22" s="693"/>
-      <c r="I22" s="693"/>
-      <c r="J22" s="693"/>
-      <c r="K22" s="693"/>
-    </row>
-    <row r="23" spans="1:11" s="695" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="691" t="s">
-        <v>2213</v>
-      </c>
-      <c r="B23" s="692" t="s">
+      <c r="E22" s="580"/>
+      <c r="F22" s="580"/>
+      <c r="G22" s="580"/>
+      <c r="H22" s="580"/>
+      <c r="I22" s="580"/>
+      <c r="J22" s="580"/>
+      <c r="K22" s="580"/>
+    </row>
+    <row r="23" spans="1:11" s="582" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="578" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B23" s="579" t="s">
         <v>2207</v>
       </c>
-      <c r="C23" s="692" t="s">
+      <c r="C23" s="579" t="s">
         <v>763</v>
       </c>
-      <c r="D23" s="692" t="s">
+      <c r="D23" s="579" t="s">
         <v>2208</v>
       </c>
     </row>
@@ -66113,7 +66122,7 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -66138,13 +66147,13 @@
       <c r="A1" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="679" t="s">
+      <c r="B1" s="567" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="679" t="s">
+      <c r="C1" s="567" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="679" t="s">
+      <c r="D1" s="567" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="87" t="s">
@@ -66170,10 +66179,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="84" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="680" t="s">
+      <c r="A2" s="568" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="681"/>
+      <c r="B2" s="569"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
@@ -66185,220 +66194,220 @@
       <c r="K2" s="79"/>
     </row>
     <row r="3" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="682" t="s">
+      <c r="A3" s="570" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B3" s="571" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C3" s="208" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D3" s="572" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E3" s="573"/>
+      <c r="F3" s="573"/>
+      <c r="G3" s="573"/>
+      <c r="H3" s="573"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="573"/>
+      <c r="K3" s="574"/>
+    </row>
+    <row r="4" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="570" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B4" s="571" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C4" s="208" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D4" s="572" t="s">
+        <v>2176</v>
+      </c>
+      <c r="E4" s="573"/>
+      <c r="F4" s="573"/>
+      <c r="G4" s="573"/>
+      <c r="H4" s="573"/>
+      <c r="I4" s="573"/>
+      <c r="J4" s="573"/>
+      <c r="K4" s="574"/>
+    </row>
+    <row r="5" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="570" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B5" s="571" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C5" s="208" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D5" s="572" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E5" s="573"/>
+      <c r="F5" s="573"/>
+      <c r="G5" s="573"/>
+      <c r="H5" s="573"/>
+      <c r="I5" s="573"/>
+      <c r="J5" s="573"/>
+      <c r="K5" s="574"/>
+    </row>
+    <row r="6" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="570" t="s">
         <v>2214</v>
-      </c>
-      <c r="B3" s="683" t="s">
-        <v>2173</v>
-      </c>
-      <c r="C3" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D3" s="684" t="s">
-        <v>2174</v>
-      </c>
-      <c r="E3" s="685"/>
-      <c r="F3" s="685"/>
-      <c r="G3" s="685"/>
-      <c r="H3" s="685"/>
-      <c r="I3" s="685"/>
-      <c r="J3" s="685"/>
-      <c r="K3" s="686"/>
-    </row>
-    <row r="4" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="682" t="s">
-        <v>2215</v>
-      </c>
-      <c r="B4" s="683" t="s">
-        <v>2175</v>
-      </c>
-      <c r="C4" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D4" s="684" t="s">
-        <v>2176</v>
-      </c>
-      <c r="E4" s="685"/>
-      <c r="F4" s="685"/>
-      <c r="G4" s="685"/>
-      <c r="H4" s="685"/>
-      <c r="I4" s="685"/>
-      <c r="J4" s="685"/>
-      <c r="K4" s="686"/>
-    </row>
-    <row r="5" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="682" t="s">
-        <v>2216</v>
-      </c>
-      <c r="B5" s="683" t="s">
-        <v>2177</v>
-      </c>
-      <c r="C5" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D5" s="684" t="s">
-        <v>2178</v>
-      </c>
-      <c r="E5" s="685"/>
-      <c r="F5" s="685"/>
-      <c r="G5" s="685"/>
-      <c r="H5" s="685"/>
-      <c r="I5" s="685"/>
-      <c r="J5" s="685"/>
-      <c r="K5" s="686"/>
-    </row>
-    <row r="6" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="682" t="s">
-        <v>2217</v>
       </c>
       <c r="B6" s="120" t="s">
         <v>2179</v>
       </c>
       <c r="C6" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D6" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D6" s="572" t="s">
         <v>2180</v>
       </c>
-      <c r="E6" s="685"/>
-      <c r="F6" s="685"/>
-      <c r="G6" s="685"/>
-      <c r="H6" s="685"/>
-      <c r="I6" s="685"/>
-      <c r="J6" s="685"/>
-      <c r="K6" s="686"/>
+      <c r="E6" s="573"/>
+      <c r="F6" s="573"/>
+      <c r="G6" s="573"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="573"/>
+      <c r="J6" s="573"/>
+      <c r="K6" s="574"/>
     </row>
     <row r="7" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="682" t="s">
-        <v>2215</v>
+      <c r="A7" s="570" t="s">
+        <v>2212</v>
       </c>
       <c r="B7" s="120" t="s">
         <v>2181</v>
       </c>
       <c r="C7" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D7" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D7" s="572" t="s">
         <v>2182</v>
       </c>
-      <c r="E7" s="685"/>
-      <c r="F7" s="685"/>
-      <c r="G7" s="685"/>
-      <c r="H7" s="685"/>
-      <c r="I7" s="685"/>
-      <c r="J7" s="685"/>
-      <c r="K7" s="686"/>
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="573"/>
+      <c r="I7" s="573"/>
+      <c r="J7" s="573"/>
+      <c r="K7" s="574"/>
     </row>
     <row r="8" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="682" t="s">
-        <v>2218</v>
+      <c r="A8" s="570" t="s">
+        <v>2215</v>
       </c>
       <c r="B8" s="120" t="s">
         <v>2183</v>
       </c>
       <c r="C8" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D8" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D8" s="572" t="s">
         <v>2184</v>
       </c>
-      <c r="E8" s="685"/>
-      <c r="F8" s="685"/>
-      <c r="G8" s="685"/>
-      <c r="H8" s="685"/>
-      <c r="I8" s="685"/>
-      <c r="J8" s="685"/>
-      <c r="K8" s="686"/>
+      <c r="E8" s="573"/>
+      <c r="F8" s="573"/>
+      <c r="G8" s="573"/>
+      <c r="H8" s="573"/>
+      <c r="I8" s="573"/>
+      <c r="J8" s="573"/>
+      <c r="K8" s="574"/>
     </row>
     <row r="9" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="682" t="s">
-        <v>2219</v>
+      <c r="A9" s="570" t="s">
+        <v>2216</v>
       </c>
       <c r="B9" s="120" t="s">
         <v>2185</v>
       </c>
       <c r="C9" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D9" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D9" s="572" t="s">
         <v>2186</v>
       </c>
-      <c r="E9" s="685"/>
-      <c r="F9" s="685"/>
-      <c r="G9" s="685"/>
-      <c r="H9" s="685"/>
-      <c r="I9" s="685"/>
-      <c r="J9" s="685"/>
-      <c r="K9" s="686"/>
+      <c r="E9" s="573"/>
+      <c r="F9" s="573"/>
+      <c r="G9" s="573"/>
+      <c r="H9" s="573"/>
+      <c r="I9" s="573"/>
+      <c r="J9" s="573"/>
+      <c r="K9" s="574"/>
     </row>
     <row r="10" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="682" t="s">
-        <v>2220</v>
+      <c r="A10" s="570" t="s">
+        <v>2217</v>
       </c>
       <c r="B10" s="120" t="s">
         <v>2187</v>
       </c>
       <c r="C10" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D10" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D10" s="572" t="s">
         <v>2188</v>
       </c>
-      <c r="E10" s="685"/>
-      <c r="F10" s="685"/>
-      <c r="G10" s="685"/>
-      <c r="H10" s="685"/>
-      <c r="I10" s="685"/>
-      <c r="J10" s="685"/>
-      <c r="K10" s="686"/>
+      <c r="E10" s="573"/>
+      <c r="F10" s="573"/>
+      <c r="G10" s="573"/>
+      <c r="H10" s="573"/>
+      <c r="I10" s="573"/>
+      <c r="J10" s="573"/>
+      <c r="K10" s="574"/>
     </row>
     <row r="11" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="682" t="s">
-        <v>2221</v>
+      <c r="A11" s="570" t="s">
+        <v>2218</v>
       </c>
       <c r="B11" s="120" t="s">
         <v>2189</v>
       </c>
       <c r="C11" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D11" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D11" s="572" t="s">
         <v>2190</v>
       </c>
-      <c r="E11" s="685"/>
-      <c r="F11" s="685"/>
-      <c r="G11" s="685"/>
-      <c r="H11" s="685"/>
-      <c r="I11" s="685"/>
-      <c r="J11" s="685"/>
-      <c r="K11" s="686"/>
+      <c r="E11" s="573"/>
+      <c r="F11" s="573"/>
+      <c r="G11" s="573"/>
+      <c r="H11" s="573"/>
+      <c r="I11" s="573"/>
+      <c r="J11" s="573"/>
+      <c r="K11" s="574"/>
     </row>
     <row r="12" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="682" t="s">
-        <v>2222</v>
+      <c r="A12" s="570" t="s">
+        <v>2219</v>
       </c>
       <c r="B12" s="120" t="s">
         <v>2191</v>
       </c>
       <c r="C12" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D12" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D12" s="572" t="s">
         <v>2192</v>
       </c>
-      <c r="E12" s="685"/>
-      <c r="F12" s="685"/>
-      <c r="G12" s="685"/>
-      <c r="H12" s="685"/>
-      <c r="I12" s="685"/>
-      <c r="J12" s="685"/>
-      <c r="K12" s="686"/>
+      <c r="E12" s="573"/>
+      <c r="F12" s="573"/>
+      <c r="G12" s="573"/>
+      <c r="H12" s="573"/>
+      <c r="I12" s="573"/>
+      <c r="J12" s="573"/>
+      <c r="K12" s="574"/>
     </row>
     <row r="13" spans="1:11" s="84" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="680" t="s">
+      <c r="A13" s="568" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="681"/>
+      <c r="B13" s="569"/>
       <c r="C13" s="78"/>
       <c r="D13" s="78"/>
       <c r="E13" s="78"/>
@@ -66410,330 +66419,330 @@
       <c r="K13" s="127"/>
     </row>
     <row r="14" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="682" t="s">
+      <c r="A14" s="570" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B14" s="571" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C14" s="208" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D14" s="572" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E14" s="573"/>
+      <c r="F14" s="573"/>
+      <c r="G14" s="573"/>
+      <c r="H14" s="573"/>
+      <c r="I14" s="573"/>
+      <c r="J14" s="573"/>
+      <c r="K14" s="574"/>
+    </row>
+    <row r="15" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="570" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B15" s="571" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C15" s="208" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D15" s="572" t="s">
+        <v>2195</v>
+      </c>
+      <c r="E15" s="573"/>
+      <c r="F15" s="573"/>
+      <c r="G15" s="573"/>
+      <c r="H15" s="573"/>
+      <c r="I15" s="573"/>
+      <c r="J15" s="573"/>
+      <c r="K15" s="574"/>
+    </row>
+    <row r="16" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="570" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B16" s="571" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C16" s="208" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D16" s="572" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E16" s="573"/>
+      <c r="F16" s="573"/>
+      <c r="G16" s="573"/>
+      <c r="H16" s="573"/>
+      <c r="I16" s="573"/>
+      <c r="J16" s="573"/>
+      <c r="K16" s="574"/>
+    </row>
+    <row r="17" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="570" t="s">
         <v>2223</v>
-      </c>
-      <c r="B14" s="683" t="s">
-        <v>2173</v>
-      </c>
-      <c r="C14" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D14" s="684" t="s">
-        <v>2193</v>
-      </c>
-      <c r="E14" s="685"/>
-      <c r="F14" s="685"/>
-      <c r="G14" s="685"/>
-      <c r="H14" s="685"/>
-      <c r="I14" s="685"/>
-      <c r="J14" s="685"/>
-      <c r="K14" s="686"/>
-    </row>
-    <row r="15" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="682" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B15" s="683" t="s">
-        <v>2194</v>
-      </c>
-      <c r="C15" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D15" s="684" t="s">
-        <v>2195</v>
-      </c>
-      <c r="E15" s="685"/>
-      <c r="F15" s="685"/>
-      <c r="G15" s="685"/>
-      <c r="H15" s="685"/>
-      <c r="I15" s="685"/>
-      <c r="J15" s="685"/>
-      <c r="K15" s="686"/>
-    </row>
-    <row r="16" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="682" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B16" s="683" t="s">
-        <v>2196</v>
-      </c>
-      <c r="C16" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D16" s="684" t="s">
-        <v>2197</v>
-      </c>
-      <c r="E16" s="685"/>
-      <c r="F16" s="685"/>
-      <c r="G16" s="685"/>
-      <c r="H16" s="685"/>
-      <c r="I16" s="685"/>
-      <c r="J16" s="685"/>
-      <c r="K16" s="686"/>
-    </row>
-    <row r="17" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="682" t="s">
-        <v>2226</v>
       </c>
       <c r="B17" s="120" t="s">
         <v>2179</v>
       </c>
       <c r="C17" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D17" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D17" s="572" t="s">
         <v>2180</v>
       </c>
-      <c r="E17" s="685"/>
-      <c r="F17" s="685"/>
-      <c r="G17" s="685"/>
-      <c r="H17" s="685"/>
-      <c r="I17" s="685"/>
-      <c r="J17" s="685"/>
-      <c r="K17" s="686"/>
+      <c r="E17" s="573"/>
+      <c r="F17" s="573"/>
+      <c r="G17" s="573"/>
+      <c r="H17" s="573"/>
+      <c r="I17" s="573"/>
+      <c r="J17" s="573"/>
+      <c r="K17" s="574"/>
     </row>
     <row r="18" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="682" t="s">
-        <v>2224</v>
+      <c r="A18" s="570" t="s">
+        <v>2221</v>
       </c>
       <c r="B18" s="120" t="s">
         <v>2181</v>
       </c>
       <c r="C18" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D18" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D18" s="572" t="s">
         <v>2182</v>
       </c>
-      <c r="E18" s="685"/>
-      <c r="F18" s="685"/>
-      <c r="G18" s="685"/>
-      <c r="H18" s="685"/>
-      <c r="I18" s="685"/>
-      <c r="J18" s="685"/>
-      <c r="K18" s="686"/>
+      <c r="E18" s="573"/>
+      <c r="F18" s="573"/>
+      <c r="G18" s="573"/>
+      <c r="H18" s="573"/>
+      <c r="I18" s="573"/>
+      <c r="J18" s="573"/>
+      <c r="K18" s="574"/>
     </row>
     <row r="19" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="682" t="s">
-        <v>2227</v>
+      <c r="A19" s="570" t="s">
+        <v>2224</v>
       </c>
       <c r="B19" s="120" t="s">
         <v>2183</v>
       </c>
       <c r="C19" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D19" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D19" s="572" t="s">
         <v>2184</v>
       </c>
-      <c r="E19" s="685"/>
-      <c r="F19" s="685"/>
-      <c r="G19" s="685"/>
-      <c r="H19" s="685"/>
-      <c r="I19" s="685"/>
-      <c r="J19" s="685"/>
-      <c r="K19" s="686"/>
+      <c r="E19" s="573"/>
+      <c r="F19" s="573"/>
+      <c r="G19" s="573"/>
+      <c r="H19" s="573"/>
+      <c r="I19" s="573"/>
+      <c r="J19" s="573"/>
+      <c r="K19" s="574"/>
     </row>
     <row r="20" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="682" t="s">
-        <v>2228</v>
+      <c r="A20" s="570" t="s">
+        <v>2225</v>
       </c>
       <c r="B20" s="120" t="s">
         <v>2185</v>
       </c>
       <c r="C20" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D20" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D20" s="572" t="s">
         <v>2186</v>
       </c>
-      <c r="E20" s="685"/>
-      <c r="F20" s="685"/>
-      <c r="G20" s="685"/>
-      <c r="H20" s="685"/>
-      <c r="I20" s="685"/>
-      <c r="J20" s="685"/>
-      <c r="K20" s="686"/>
+      <c r="E20" s="573"/>
+      <c r="F20" s="573"/>
+      <c r="G20" s="573"/>
+      <c r="H20" s="573"/>
+      <c r="I20" s="573"/>
+      <c r="J20" s="573"/>
+      <c r="K20" s="574"/>
     </row>
     <row r="21" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="682" t="s">
-        <v>2229</v>
+      <c r="A21" s="570" t="s">
+        <v>2226</v>
       </c>
       <c r="B21" s="120" t="s">
         <v>2187</v>
       </c>
       <c r="C21" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D21" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D21" s="572" t="s">
         <v>2188</v>
       </c>
-      <c r="E21" s="685"/>
-      <c r="F21" s="685"/>
-      <c r="G21" s="685"/>
-      <c r="H21" s="685"/>
-      <c r="I21" s="685"/>
-      <c r="J21" s="685"/>
-      <c r="K21" s="686"/>
+      <c r="E21" s="573"/>
+      <c r="F21" s="573"/>
+      <c r="G21" s="573"/>
+      <c r="H21" s="573"/>
+      <c r="I21" s="573"/>
+      <c r="J21" s="573"/>
+      <c r="K21" s="574"/>
     </row>
     <row r="22" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="682" t="s">
-        <v>2230</v>
+      <c r="A22" s="570" t="s">
+        <v>2227</v>
       </c>
       <c r="B22" s="120" t="s">
         <v>2189</v>
       </c>
       <c r="C22" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D22" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D22" s="572" t="s">
         <v>2198</v>
       </c>
-      <c r="E22" s="685"/>
-      <c r="F22" s="685"/>
-      <c r="G22" s="685"/>
-      <c r="H22" s="685"/>
-      <c r="I22" s="685"/>
-      <c r="J22" s="685"/>
-      <c r="K22" s="686"/>
+      <c r="E22" s="573"/>
+      <c r="F22" s="573"/>
+      <c r="G22" s="573"/>
+      <c r="H22" s="573"/>
+      <c r="I22" s="573"/>
+      <c r="J22" s="573"/>
+      <c r="K22" s="574"/>
     </row>
     <row r="23" spans="1:11" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="682" t="s">
-        <v>2231</v>
+      <c r="A23" s="570" t="s">
+        <v>2228</v>
       </c>
       <c r="B23" s="120" t="s">
         <v>2191</v>
       </c>
       <c r="C23" s="208" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D23" s="684" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D23" s="572" t="s">
         <v>2192</v>
       </c>
-      <c r="E23" s="685"/>
-      <c r="F23" s="685"/>
-      <c r="G23" s="685"/>
-      <c r="H23" s="685"/>
-      <c r="I23" s="685"/>
-      <c r="J23" s="685"/>
-      <c r="K23" s="686"/>
-    </row>
-    <row r="24" spans="1:11" s="690" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="687" t="s">
+      <c r="E23" s="573"/>
+      <c r="F23" s="573"/>
+      <c r="G23" s="573"/>
+      <c r="H23" s="573"/>
+      <c r="I23" s="573"/>
+      <c r="J23" s="573"/>
+      <c r="K23" s="574"/>
+    </row>
+    <row r="24" spans="1:11" s="577" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="673" t="s">
         <v>2199</v>
       </c>
-      <c r="B24" s="687"/>
-      <c r="C24" s="688"/>
-      <c r="D24" s="688"/>
-      <c r="E24" s="688"/>
-      <c r="F24" s="688"/>
-      <c r="G24" s="688"/>
-      <c r="H24" s="688"/>
-      <c r="I24" s="688"/>
-      <c r="J24" s="689"/>
-      <c r="K24" s="689"/>
-    </row>
-    <row r="25" spans="1:11" s="694" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="691" t="s">
-        <v>2232</v>
-      </c>
-      <c r="B25" s="692" t="s">
+      <c r="B24" s="673"/>
+      <c r="C24" s="575"/>
+      <c r="D24" s="575"/>
+      <c r="E24" s="575"/>
+      <c r="F24" s="575"/>
+      <c r="G24" s="575"/>
+      <c r="H24" s="575"/>
+      <c r="I24" s="575"/>
+      <c r="J24" s="576"/>
+      <c r="K24" s="576"/>
+    </row>
+    <row r="25" spans="1:11" s="581" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="578" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B25" s="579" t="s">
         <v>2200</v>
       </c>
-      <c r="C25" s="692" t="s">
+      <c r="C25" s="579" t="s">
         <v>763</v>
       </c>
-      <c r="D25" s="692" t="s">
+      <c r="D25" s="579" t="s">
         <v>910</v>
       </c>
-      <c r="E25" s="693"/>
-      <c r="F25" s="693"/>
-      <c r="G25" s="693"/>
-      <c r="H25" s="693"/>
-      <c r="I25" s="693"/>
-      <c r="J25" s="693"/>
-      <c r="K25" s="693"/>
-    </row>
-    <row r="26" spans="1:11" s="695" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="691" t="s">
-        <v>2233</v>
-      </c>
-      <c r="B26" s="692" t="s">
+      <c r="E25" s="580"/>
+      <c r="F25" s="580"/>
+      <c r="G25" s="580"/>
+      <c r="H25" s="580"/>
+      <c r="I25" s="580"/>
+      <c r="J25" s="580"/>
+      <c r="K25" s="580"/>
+    </row>
+    <row r="26" spans="1:11" s="582" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="578" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B26" s="579" t="s">
         <v>2201</v>
       </c>
-      <c r="C26" s="692" t="s">
+      <c r="C26" s="579" t="s">
         <v>763</v>
       </c>
-      <c r="D26" s="692" t="s">
+      <c r="D26" s="579" t="s">
         <v>2202</v>
       </c>
-      <c r="E26" s="693"/>
-      <c r="F26" s="693"/>
-      <c r="G26" s="693"/>
-      <c r="H26" s="693"/>
-      <c r="I26" s="693"/>
-      <c r="J26" s="693"/>
-      <c r="K26" s="693"/>
-    </row>
-    <row r="27" spans="1:11" s="694" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="691" t="s">
-        <v>2234</v>
-      </c>
-      <c r="B27" s="692" t="s">
+      <c r="E26" s="580"/>
+      <c r="F26" s="580"/>
+      <c r="G26" s="580"/>
+      <c r="H26" s="580"/>
+      <c r="I26" s="580"/>
+      <c r="J26" s="580"/>
+      <c r="K26" s="580"/>
+    </row>
+    <row r="27" spans="1:11" s="581" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="578" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B27" s="579" t="s">
         <v>2203</v>
       </c>
-      <c r="C27" s="692" t="s">
+      <c r="C27" s="579" t="s">
         <v>763</v>
       </c>
-      <c r="D27" s="692" t="s">
+      <c r="D27" s="579" t="s">
         <v>908</v>
       </c>
-      <c r="E27" s="693"/>
-      <c r="F27" s="693"/>
-      <c r="G27" s="693"/>
-      <c r="H27" s="693"/>
-      <c r="I27" s="693"/>
-      <c r="J27" s="693"/>
-      <c r="K27" s="693"/>
+      <c r="E27" s="580"/>
+      <c r="F27" s="580"/>
+      <c r="G27" s="580"/>
+      <c r="H27" s="580"/>
+      <c r="I27" s="580"/>
+      <c r="J27" s="580"/>
+      <c r="K27" s="580"/>
     </row>
     <row r="28" spans="1:11" s="338" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="338" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="695" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="691" t="s">
-        <v>2235</v>
-      </c>
-      <c r="B29" s="692" t="s">
+    <row r="29" spans="1:11" s="582" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="578" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B29" s="579" t="s">
         <v>2205</v>
       </c>
-      <c r="C29" s="692" t="s">
+      <c r="C29" s="579" t="s">
         <v>763</v>
       </c>
-      <c r="D29" s="692" t="s">
+      <c r="D29" s="579" t="s">
         <v>2206</v>
       </c>
-      <c r="E29" s="693"/>
-      <c r="F29" s="693"/>
-      <c r="G29" s="693"/>
-      <c r="H29" s="693"/>
-      <c r="I29" s="693"/>
-      <c r="J29" s="693"/>
-      <c r="K29" s="693"/>
-    </row>
-    <row r="30" spans="1:11" s="695" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="691" t="s">
-        <v>2236</v>
-      </c>
-      <c r="B30" s="692" t="s">
+      <c r="E29" s="580"/>
+      <c r="F29" s="580"/>
+      <c r="G29" s="580"/>
+      <c r="H29" s="580"/>
+      <c r="I29" s="580"/>
+      <c r="J29" s="580"/>
+      <c r="K29" s="580"/>
+    </row>
+    <row r="30" spans="1:11" s="582" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="578" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B30" s="579" t="s">
         <v>2207</v>
       </c>
-      <c r="C30" s="692" t="s">
+      <c r="C30" s="579" t="s">
         <v>763</v>
       </c>
-      <c r="D30" s="692" t="s">
+      <c r="D30" s="579" t="s">
         <v>2208</v>
       </c>
     </row>
